--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>League</t>
   </si>
@@ -409,10 +409,28 @@
     <t>1.228224306</t>
   </si>
   <si>
+    <t>1.228234714</t>
+  </si>
+  <si>
+    <t>1.228234530</t>
+  </si>
+  <si>
+    <t>1.228234620</t>
+  </si>
+  <si>
     <t>1.227765781</t>
   </si>
   <si>
     <t>1.228071233</t>
+  </si>
+  <si>
+    <t>1.228234637</t>
+  </si>
+  <si>
+    <t>1.228234455</t>
+  </si>
+  <si>
+    <t>1.228234545</t>
   </si>
   <si>
     <t>1.227765792</t>
@@ -999,7 +1017,7 @@
         <v>1.04</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H2">
         <v>1.04</v>
@@ -1008,7 +1026,7 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K2">
         <v>1000</v>
@@ -1017,139 +1035,139 @@
         <v>1.15</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="N2">
         <v>1.01</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
         <v>102</v>
@@ -1169,11 +1187,11 @@
       <c r="BK2" t="s">
         <v>121</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+      <c r="BL2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1220,133 +1238,133 @@
         <v>1.01</v>
       </c>
       <c r="O3">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
         <v>103</v>
@@ -1366,11 +1384,11 @@
       <c r="BK3" t="s">
         <v>122</v>
       </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+      <c r="BL3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1390,19 +1408,19 @@
         <v>94</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="I4">
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K4">
         <v>1000</v>
@@ -1417,133 +1435,133 @@
         <v>1.01</v>
       </c>
       <c r="O4">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
         <v>104</v>
@@ -1563,11 +1581,11 @@
       <c r="BK4" t="s">
         <v>123</v>
       </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+      <c r="BL4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1605,13 +1623,13 @@
         <v>3.7</v>
       </c>
       <c r="L5">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="M5">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="N5">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
         <v>2.28</v>
@@ -1784,34 +1802,34 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I6">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J6">
         <v>2.68</v>
       </c>
       <c r="K6">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L6">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="M6">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="N6">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="O6">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2002,7 +2020,7 @@
         <v>1.05</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="N7">
         <v>1.01</v>
@@ -2178,7 +2196,7 @@
         <v>98</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G8">
         <v>4.2</v>
@@ -2187,25 +2205,25 @@
         <v>1.92</v>
       </c>
       <c r="I8">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J8">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="M8">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O8">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2375,7 +2393,7 @@
         <v>99</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G9">
         <v>2.54</v>
@@ -2387,13 +2405,13 @@
         <v>3.05</v>
       </c>
       <c r="J9">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K9">
         <v>3.7</v>
       </c>
       <c r="L9">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="M9">
         <v>2.28</v>
@@ -2459,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="AH9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9">
         <v>32</v>
@@ -2483,13 +2501,13 @@
         <v>15.5</v>
       </c>
       <c r="AP9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ9">
         <v>40</v>
       </c>
       <c r="AR9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS9">
         <v>38</v>
@@ -2501,7 +2519,7 @@
         <v>26</v>
       </c>
       <c r="AV9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9">
         <v>36</v>
@@ -2522,10 +2540,10 @@
         <v>18</v>
       </c>
       <c r="BC9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD9">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BE9">
         <v>980</v>
@@ -2549,10 +2567,10 @@
         <v>128</v>
       </c>
       <c r="BL9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BM9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2578,28 +2596,28 @@
         <v>3.6</v>
       </c>
       <c r="H10">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I10">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J10">
+        <v>2.9</v>
+      </c>
+      <c r="K10">
+        <v>3.55</v>
+      </c>
+      <c r="L10">
+        <v>1.53</v>
+      </c>
+      <c r="M10">
+        <v>1.71</v>
+      </c>
+      <c r="N10">
+        <v>2.4</v>
+      </c>
+      <c r="O10">
         <v>2.86</v>
-      </c>
-      <c r="K10">
-        <v>4.1</v>
-      </c>
-      <c r="L10">
-        <v>1.55</v>
-      </c>
-      <c r="M10">
-        <v>1.73</v>
-      </c>
-      <c r="N10">
-        <v>2.38</v>
-      </c>
-      <c r="O10">
-        <v>2.82</v>
       </c>
       <c r="P10">
         <v>1.97</v>
@@ -2686,7 +2704,7 @@
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="AS10">
         <v>1000</v>
@@ -2698,13 +2716,13 @@
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>8</v>
+        <v>1.57</v>
       </c>
       <c r="AW10">
         <v>980</v>
       </c>
       <c r="AX10">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -2722,7 +2740,7 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>2.86</v>
+        <v>1.45</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -2746,10 +2764,10 @@
         <v>129</v>
       </c>
       <c r="BL10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BM10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2769,25 +2787,25 @@
         <v>101</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="H11">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I11">
         <v>2.26</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="K11">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="L11">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="M11">
         <v>2.22</v>
@@ -2796,7 +2814,7 @@
         <v>1.82</v>
       </c>
       <c r="O11">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="P11">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -1014,157 +1014,157 @@
         <v>92</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="G2">
+        <v>1.4</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>13.5</v>
+      </c>
+      <c r="J2">
+        <v>5.1</v>
+      </c>
+      <c r="K2">
+        <v>7.8</v>
+      </c>
+      <c r="L2">
+        <v>2.32</v>
+      </c>
+      <c r="M2">
+        <v>2.74</v>
+      </c>
+      <c r="N2">
+        <v>1.58</v>
+      </c>
+      <c r="O2">
+        <v>1.76</v>
+      </c>
+      <c r="P2">
+        <v>1.9</v>
+      </c>
+      <c r="Q2">
+        <v>2.22</v>
+      </c>
+      <c r="R2">
+        <v>1.82</v>
+      </c>
+      <c r="S2">
         <v>2.12</v>
       </c>
-      <c r="H2">
-        <v>1.04</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>3.75</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>1.15</v>
-      </c>
-      <c r="M2">
-        <v>110</v>
-      </c>
-      <c r="N2">
-        <v>1.01</v>
-      </c>
-      <c r="O2">
-        <v>15.5</v>
-      </c>
-      <c r="P2">
-        <v>1.01</v>
-      </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
-      <c r="R2">
-        <v>1.01</v>
-      </c>
-      <c r="S2">
-        <v>1000</v>
-      </c>
       <c r="T2">
-        <v>1.03</v>
+        <v>16.5</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="W2">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="X2">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="Y2">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z2">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD2">
-        <v>1.03</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE2">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF2">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AG2">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH2">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AK2">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN2">
-        <v>1.03</v>
+        <v>20</v>
       </c>
       <c r="AO2">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP2">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.03</v>
+        <v>8.4</v>
       </c>
       <c r="AS2">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AT2">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AU2">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AV2">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AW2">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AX2">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="BA2">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="BB2">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BC2">
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1211,157 +1211,157 @@
         <v>93</v>
       </c>
       <c r="F3">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L3">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="N3">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="O3">
+        <v>1.81</v>
+      </c>
+      <c r="P3">
+        <v>1.64</v>
+      </c>
+      <c r="Q3">
+        <v>1.76</v>
+      </c>
+      <c r="R3">
+        <v>2.3</v>
+      </c>
+      <c r="S3">
+        <v>2.56</v>
+      </c>
+      <c r="T3">
+        <v>5.4</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+      <c r="V3">
+        <v>5.2</v>
+      </c>
+      <c r="W3">
+        <v>20</v>
+      </c>
+      <c r="X3">
+        <v>5.9</v>
+      </c>
+      <c r="Y3">
+        <v>34</v>
+      </c>
+      <c r="Z3">
+        <v>6.4</v>
+      </c>
+      <c r="AA3">
+        <v>80</v>
+      </c>
+      <c r="AB3">
+        <v>9.6</v>
+      </c>
+      <c r="AC3">
+        <v>13.5</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>10.5</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>17.5</v>
+      </c>
+      <c r="AH3">
+        <v>6.2</v>
+      </c>
+      <c r="AI3">
+        <v>46</v>
+      </c>
+      <c r="AJ3">
+        <v>10.5</v>
+      </c>
+      <c r="AK3">
         <v>15.5</v>
       </c>
-      <c r="P3">
-        <v>1.01</v>
-      </c>
-      <c r="Q3">
-        <v>1000</v>
-      </c>
-      <c r="R3">
-        <v>1.01</v>
-      </c>
-      <c r="S3">
-        <v>1000</v>
-      </c>
-      <c r="T3">
-        <v>1.01</v>
-      </c>
-      <c r="U3">
-        <v>1000</v>
-      </c>
-      <c r="V3">
-        <v>1.01</v>
-      </c>
-      <c r="W3">
-        <v>1000</v>
-      </c>
-      <c r="X3">
-        <v>1.01</v>
-      </c>
-      <c r="Y3">
-        <v>1000</v>
-      </c>
-      <c r="Z3">
-        <v>1.01</v>
-      </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>1.01</v>
-      </c>
-      <c r="AC3">
-        <v>1000</v>
-      </c>
-      <c r="AD3">
-        <v>1.01</v>
-      </c>
-      <c r="AE3">
-        <v>1000</v>
-      </c>
-      <c r="AF3">
-        <v>1.01</v>
-      </c>
-      <c r="AG3">
-        <v>1000</v>
-      </c>
-      <c r="AH3">
-        <v>1.01</v>
-      </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
-        <v>1.01</v>
-      </c>
-      <c r="AK3">
-        <v>1000</v>
-      </c>
       <c r="AL3">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AM3">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AN3">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AO3">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AP3">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AQ3">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AR3">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AT3">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV3">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="BD3">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1408,157 +1408,157 @@
         <v>94</v>
       </c>
       <c r="F4">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <v>1.07</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J4">
-        <v>1.07</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>1.15</v>
+        <v>1.73</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="O4">
+        <v>2.38</v>
+      </c>
+      <c r="P4">
+        <v>1.8</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>1.91</v>
+      </c>
+      <c r="S4">
+        <v>2.26</v>
+      </c>
+      <c r="T4">
+        <v>3.25</v>
+      </c>
+      <c r="U4">
+        <v>14.5</v>
+      </c>
+      <c r="V4">
+        <v>3.3</v>
+      </c>
+      <c r="W4">
         <v>15.5</v>
       </c>
-      <c r="P4">
-        <v>1.01</v>
-      </c>
-      <c r="Q4">
-        <v>1000</v>
-      </c>
-      <c r="R4">
-        <v>1.01</v>
-      </c>
-      <c r="S4">
-        <v>1000</v>
-      </c>
-      <c r="T4">
-        <v>1.01</v>
-      </c>
-      <c r="U4">
-        <v>1000</v>
-      </c>
-      <c r="V4">
-        <v>1.01</v>
-      </c>
-      <c r="W4">
-        <v>1000</v>
-      </c>
       <c r="X4">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z4">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AC4">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD4">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AE4">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AF4">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AG4">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH4">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AK4">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL4">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="AM4">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AN4">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="AO4">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AP4">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AR4">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AS4">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AT4">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AU4">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AV4">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AW4">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX4">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BA4">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="BB4">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC4">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD4">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1620,7 +1620,7 @@
         <v>3.45</v>
       </c>
       <c r="K5">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L5">
         <v>1.78</v>
@@ -1802,34 +1802,34 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H6">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="I6">
         <v>4.9</v>
       </c>
       <c r="J6">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="K6">
         <v>4.5</v>
       </c>
       <c r="L6">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M6">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="N6">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="O6">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>1.01</v>
       </c>
       <c r="O7">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>98</v>
       </c>
       <c r="F8">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="G8">
         <v>4.2</v>
@@ -2208,13 +2208,13 @@
         <v>1.94</v>
       </c>
       <c r="J8">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8">
         <v>4.3</v>
       </c>
       <c r="L8">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="M8">
         <v>2.74</v>
@@ -2223,7 +2223,7 @@
         <v>1.58</v>
       </c>
       <c r="O8">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2393,19 +2393,19 @@
         <v>99</v>
       </c>
       <c r="F9">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G9">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H9">
+        <v>2.94</v>
+      </c>
+      <c r="I9">
         <v>2.98</v>
       </c>
-      <c r="I9">
-        <v>3.05</v>
-      </c>
       <c r="J9">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9">
         <v>3.7</v>
@@ -2414,16 +2414,16 @@
         <v>2.26</v>
       </c>
       <c r="M9">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="N9">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
         <v>1.8</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -2432,7 +2432,7 @@
         <v>2.5</v>
       </c>
       <c r="S9">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T9">
         <v>16.5</v>
@@ -2468,7 +2468,7 @@
         <v>7.6</v>
       </c>
       <c r="AE9">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF9">
         <v>12</v>
@@ -2477,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="AH9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9">
         <v>32</v>
@@ -2489,7 +2489,7 @@
         <v>18.5</v>
       </c>
       <c r="AL9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM9">
         <v>12</v>
@@ -2498,16 +2498,16 @@
         <v>13.5</v>
       </c>
       <c r="AO9">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ9">
         <v>40</v>
       </c>
       <c r="AR9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS9">
         <v>38</v>
@@ -2519,13 +2519,13 @@
         <v>26</v>
       </c>
       <c r="AV9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9">
         <v>36</v>
       </c>
       <c r="AX9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AY9">
         <v>65</v>
@@ -2543,7 +2543,7 @@
         <v>21</v>
       </c>
       <c r="BD9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BE9">
         <v>980</v>
@@ -2608,16 +2608,16 @@
         <v>3.55</v>
       </c>
       <c r="L10">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M10">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="N10">
         <v>2.4</v>
       </c>
       <c r="O10">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="P10">
         <v>1.97</v>
@@ -2632,10 +2632,10 @@
         <v>2.04</v>
       </c>
       <c r="T10">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U10">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V10">
         <v>7</v>
@@ -2644,13 +2644,13 @@
         <v>980</v>
       </c>
       <c r="X10">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="Y10">
         <v>980</v>
       </c>
       <c r="Z10">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AA10">
         <v>1000</v>
@@ -2668,79 +2668,79 @@
         <v>980</v>
       </c>
       <c r="AF10">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="AG10">
         <v>980</v>
       </c>
       <c r="AH10">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="AK10">
         <v>980</v>
       </c>
       <c r="AL10">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="AM10">
         <v>980</v>
       </c>
       <c r="AN10">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AW10">
         <v>980</v>
       </c>
       <c r="AX10">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BA10">
         <v>1000</v>
       </c>
       <c r="BB10">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="BC10">
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -2787,34 +2787,34 @@
         <v>101</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H11">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="I11">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="J11">
-        <v>2.66</v>
+        <v>1.03</v>
       </c>
       <c r="K11">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L11">
-        <v>1.87</v>
+        <v>1.08</v>
       </c>
       <c r="M11">
-        <v>2.22</v>
+        <v>990</v>
       </c>
       <c r="N11">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
-        <v>2.14</v>
+        <v>13.5</v>
       </c>
       <c r="P11">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
   <si>
     <t>League</t>
   </si>
@@ -214,6 +214,9 @@
     <t>Chinese Super League</t>
   </si>
   <si>
+    <t>South Korean K League 1</t>
+  </si>
+  <si>
     <t>Swedish Superettan</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>07:00:00</t>
   </si>
   <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
@@ -265,6 +271,12 @@
     <t>Shandong Taishan</t>
   </si>
   <si>
+    <t>Suwon FC</t>
+  </si>
+  <si>
+    <t>Daejeon Citizen</t>
+  </si>
+  <si>
     <t>Zhejiang Greentown</t>
   </si>
   <si>
@@ -295,6 +307,12 @@
     <t>Nantong Zhiyun F.C</t>
   </si>
   <si>
+    <t>FC Seoul</t>
+  </si>
+  <si>
+    <t>Gimcheon Sangmu</t>
+  </si>
+  <si>
     <t>Henan Songshan Longmen</t>
   </si>
   <si>
@@ -325,6 +343,12 @@
     <t>33230673</t>
   </si>
   <si>
+    <t>33231419</t>
+  </si>
+  <si>
+    <t>33231404</t>
+  </si>
+  <si>
     <t>33230705</t>
   </si>
   <si>
@@ -355,6 +379,12 @@
     <t>1.228234628</t>
   </si>
   <si>
+    <t>1.228258982</t>
+  </si>
+  <si>
+    <t>1.228259072</t>
+  </si>
+  <si>
     <t>1.228234446</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>1.228205406</t>
   </si>
   <si>
+    <t>1.228125828</t>
+  </si>
+  <si>
     <t>1.228053336</t>
   </si>
   <si>
@@ -382,6 +415,12 @@
     <t>1.228234675</t>
   </si>
   <si>
+    <t>1.228259027</t>
+  </si>
+  <si>
+    <t>1.228259117</t>
+  </si>
+  <si>
     <t>1.228234491</t>
   </si>
   <si>
@@ -412,12 +451,30 @@
     <t>1.228234714</t>
   </si>
   <si>
+    <t>1.228259066</t>
+  </si>
+  <si>
+    <t>1.228259156</t>
+  </si>
+  <si>
     <t>1.228234530</t>
   </si>
   <si>
     <t>1.228234620</t>
   </si>
   <si>
+    <t>1.228025182</t>
+  </si>
+  <si>
+    <t>1.228205490</t>
+  </si>
+  <si>
+    <t>1.228125912</t>
+  </si>
+  <si>
+    <t>1.228053335</t>
+  </si>
+  <si>
     <t>1.227765781</t>
   </si>
   <si>
@@ -427,10 +484,28 @@
     <t>1.228234637</t>
   </si>
   <si>
+    <t>1.228258991</t>
+  </si>
+  <si>
+    <t>1.228259081</t>
+  </si>
+  <si>
     <t>1.228234455</t>
   </si>
   <si>
     <t>1.228234545</t>
+  </si>
+  <si>
+    <t>1.228025107</t>
+  </si>
+  <si>
+    <t>1.228205415</t>
+  </si>
+  <si>
+    <t>1.228125837</t>
+  </si>
+  <si>
+    <t>1.228053345</t>
   </si>
   <si>
     <t>1.227765792</t>
@@ -794,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,34 +1077,34 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="L2">
         <v>2.32</v>
@@ -1044,16 +1119,16 @@
         <v>1.76</v>
       </c>
       <c r="P2">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="Q2">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R2">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S2">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
         <v>16.5</v>
@@ -1065,73 +1140,73 @@
         <v>3.95</v>
       </c>
       <c r="W2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X2">
         <v>4.2</v>
       </c>
       <c r="Y2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Z2">
         <v>4.3</v>
       </c>
       <c r="AA2">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB2">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC2">
         <v>12</v>
       </c>
       <c r="AD2">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AE2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF2">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AG2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AH2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AI2">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AK2">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AL2">
         <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP2">
         <v>4.2</v>
       </c>
       <c r="AQ2">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AR2">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS2">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AT2">
         <v>11.5</v>
@@ -1140,37 +1215,37 @@
         <v>17.5</v>
       </c>
       <c r="AV2">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AW2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY2">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AZ2">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="BA2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BB2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC2">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="BD2">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BG2">
         <v>50443279</v>
@@ -1182,1788 +1257,2182 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="BK2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="BL2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="BM2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F3">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G3">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L3">
-        <v>2.24</v>
+        <v>1.07</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="N3">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="O3">
-        <v>1.81</v>
+        <v>21</v>
       </c>
       <c r="P3">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="Q3">
-        <v>1.76</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="U3">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="V3">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="W3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="X3">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AA3">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AC3">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI3">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AK3">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AM3">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="AO3">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS3">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AU3">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="AW3">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BG3">
-        <v>23257633</v>
+        <v>7394845</v>
       </c>
       <c r="BH3">
-        <v>50443412</v>
+        <v>2479786</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="BK3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="BL3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="BM3" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F4">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H4">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L4">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="M4">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="O4">
-        <v>2.38</v>
+        <v>21</v>
       </c>
       <c r="P4">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="Q4">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="R4">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="S4">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="U4">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="V4">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="W4">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="Y4">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AC4">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE4">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="AG4">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="AI4">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="AK4">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="AM4">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="AO4">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AP4">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ4">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="AS4">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="AU4">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="AW4">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="BG4">
-        <v>11079690</v>
+        <v>5352230</v>
       </c>
       <c r="BH4">
-        <v>40285964</v>
+        <v>41053763</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BK4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="BL4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="BM4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>1.96</v>
+      </c>
+      <c r="G5">
+        <v>2.14</v>
+      </c>
+      <c r="H5">
+        <v>3.65</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3.9</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
+        <v>2.24</v>
+      </c>
+      <c r="M5">
+        <v>2.6</v>
+      </c>
+      <c r="N5">
+        <v>1.62</v>
+      </c>
+      <c r="O5">
+        <v>1.81</v>
+      </c>
+      <c r="P5">
+        <v>1.64</v>
+      </c>
+      <c r="Q5">
+        <v>1.76</v>
+      </c>
+      <c r="R5">
+        <v>2.3</v>
+      </c>
+      <c r="S5">
+        <v>2.56</v>
+      </c>
+      <c r="T5">
+        <v>5.4</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <v>5.3</v>
+      </c>
+      <c r="W5">
+        <v>19.5</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>34</v>
+      </c>
+      <c r="Z5">
+        <v>6.6</v>
+      </c>
+      <c r="AA5">
+        <v>80</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>13.5</v>
+      </c>
+      <c r="AD5">
+        <v>7.4</v>
+      </c>
+      <c r="AE5">
+        <v>10.5</v>
+      </c>
+      <c r="AF5">
+        <v>12.5</v>
+      </c>
+      <c r="AG5">
+        <v>17.5</v>
+      </c>
+      <c r="AH5">
+        <v>6.2</v>
+      </c>
+      <c r="AI5">
+        <v>46</v>
+      </c>
+      <c r="AJ5">
+        <v>4.9</v>
+      </c>
+      <c r="AK5">
+        <v>15.5</v>
+      </c>
+      <c r="AL5">
+        <v>9.4</v>
+      </c>
+      <c r="AM5">
+        <v>11</v>
+      </c>
+      <c r="AN5">
+        <v>5.2</v>
+      </c>
+      <c r="AO5">
+        <v>19</v>
+      </c>
+      <c r="AP5">
+        <v>6.2</v>
+      </c>
+      <c r="AQ5">
+        <v>48</v>
+      </c>
+      <c r="AR5">
+        <v>5.6</v>
+      </c>
+      <c r="AS5">
+        <v>25</v>
+      </c>
+      <c r="AT5">
+        <v>5.4</v>
+      </c>
+      <c r="AU5">
+        <v>21</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>34</v>
+      </c>
+      <c r="AX5">
+        <v>6.6</v>
+      </c>
+      <c r="AY5">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5">
-        <v>2.98</v>
-      </c>
-      <c r="G5">
-        <v>3.3</v>
-      </c>
-      <c r="H5">
-        <v>2.46</v>
-      </c>
-      <c r="I5">
-        <v>2.68</v>
-      </c>
-      <c r="J5">
-        <v>3.45</v>
-      </c>
-      <c r="K5">
-        <v>3.85</v>
-      </c>
-      <c r="L5">
-        <v>1.78</v>
-      </c>
-      <c r="M5">
-        <v>1.91</v>
-      </c>
-      <c r="N5">
-        <v>2.1</v>
-      </c>
-      <c r="O5">
-        <v>2.28</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="BG5">
-        <v>14112862</v>
+        <v>23257633</v>
       </c>
       <c r="BH5">
-        <v>778918</v>
+        <v>50443412</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BK5" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G6">
+        <v>2.44</v>
+      </c>
+      <c r="H6">
         <v>3.35</v>
       </c>
-      <c r="H6">
-        <v>2.74</v>
-      </c>
       <c r="I6">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="K6">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="M6">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="O6">
-        <v>5.1</v>
+        <v>2.38</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BG6">
-        <v>17586408</v>
+        <v>11079690</v>
       </c>
       <c r="BH6">
-        <v>8750556</v>
+        <v>40285964</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="BK6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L7">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="M7">
-        <v>990</v>
+        <v>1.93</v>
       </c>
       <c r="N7">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="O7">
-        <v>36</v>
+        <v>2.22</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>14112862</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>778918</v>
       </c>
       <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>125</v>
       </c>
       <c r="BK7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F8">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="G8">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="H8">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1.94</v>
+        <v>4.1</v>
       </c>
       <c r="J8">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="K8">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L8">
-        <v>2.56</v>
+        <v>1.35</v>
       </c>
       <c r="M8">
-        <v>2.74</v>
+        <v>1.61</v>
       </c>
       <c r="N8">
-        <v>1.58</v>
+        <v>2.62</v>
       </c>
       <c r="O8">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BG8">
-        <v>48043</v>
+        <v>17586408</v>
       </c>
       <c r="BH8">
-        <v>48324</v>
+        <v>8750556</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="BK8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F9">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G9">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="H9">
-        <v>2.94</v>
+        <v>2.26</v>
       </c>
       <c r="I9">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="K9">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L9">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="M9">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P9">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q9">
-        <v>1.67</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="S9">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="T9">
-        <v>16.5</v>
+        <v>3.3</v>
       </c>
       <c r="U9">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="V9">
-        <v>13.5</v>
+        <v>3.15</v>
       </c>
       <c r="W9">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="X9">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="Y9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z9">
-        <v>26</v>
+        <v>3.9</v>
       </c>
       <c r="AA9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB9">
-        <v>12.5</v>
+        <v>3.25</v>
       </c>
       <c r="AC9">
         <v>14</v>
       </c>
       <c r="AD9">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE9">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AF9">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="AG9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9">
-        <v>24</v>
+        <v>3.8</v>
       </c>
       <c r="AI9">
+        <v>36</v>
+      </c>
+      <c r="AJ9">
+        <v>3.65</v>
+      </c>
+      <c r="AK9">
+        <v>25</v>
+      </c>
+      <c r="AL9">
+        <v>3.4</v>
+      </c>
+      <c r="AM9">
+        <v>16.5</v>
+      </c>
+      <c r="AN9">
+        <v>3.6</v>
+      </c>
+      <c r="AO9">
+        <v>23</v>
+      </c>
+      <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AQ9">
+        <v>60</v>
+      </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <v>65</v>
+      </c>
+      <c r="AT9">
+        <v>3.9</v>
+      </c>
+      <c r="AU9">
+        <v>44</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>65</v>
+      </c>
+      <c r="AX9">
+        <v>4.1</v>
+      </c>
+      <c r="AY9">
+        <v>1000</v>
+      </c>
+      <c r="AZ9">
+        <v>3.85</v>
+      </c>
+      <c r="BA9">
+        <v>42</v>
+      </c>
+      <c r="BB9">
+        <v>3.75</v>
+      </c>
+      <c r="BC9">
         <v>32</v>
       </c>
-      <c r="AJ9">
-        <v>16</v>
-      </c>
-      <c r="AK9">
-        <v>18.5</v>
-      </c>
-      <c r="AL9">
-        <v>11</v>
-      </c>
-      <c r="AM9">
-        <v>12</v>
-      </c>
-      <c r="AN9">
-        <v>13.5</v>
-      </c>
-      <c r="AO9">
-        <v>15</v>
-      </c>
-      <c r="AP9">
-        <v>29</v>
-      </c>
-      <c r="AQ9">
-        <v>40</v>
-      </c>
-      <c r="AR9">
-        <v>28</v>
-      </c>
-      <c r="AS9">
-        <v>38</v>
-      </c>
-      <c r="AT9">
-        <v>20</v>
-      </c>
-      <c r="AU9">
-        <v>26</v>
-      </c>
-      <c r="AV9">
-        <v>26</v>
-      </c>
-      <c r="AW9">
-        <v>36</v>
-      </c>
-      <c r="AX9">
-        <v>50</v>
-      </c>
-      <c r="AY9">
-        <v>65</v>
-      </c>
-      <c r="AZ9">
-        <v>14</v>
-      </c>
-      <c r="BA9">
-        <v>16</v>
-      </c>
-      <c r="BB9">
-        <v>18</v>
-      </c>
-      <c r="BC9">
-        <v>21</v>
-      </c>
       <c r="BD9">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="BE9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BG9">
-        <v>5774350</v>
+        <v>48787</v>
       </c>
       <c r="BH9">
-        <v>2426</v>
+        <v>58252361</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BK9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="BL9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="BM9" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H10">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="I10">
-        <v>2.94</v>
+        <v>1.94</v>
       </c>
       <c r="J10">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="K10">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L10">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="M10">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>1.58</v>
       </c>
       <c r="O10">
-        <v>2.82</v>
+        <v>1.65</v>
       </c>
       <c r="P10">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="Q10">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="S10">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="U10">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="W10">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X10">
-        <v>5.4</v>
+        <v>13</v>
       </c>
       <c r="Y10">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z10">
-        <v>1.91</v>
+        <v>18</v>
       </c>
       <c r="AA10">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB10">
-        <v>7.8</v>
+        <v>17</v>
       </c>
       <c r="AC10">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE10">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AF10">
+        <v>9.6</v>
+      </c>
+      <c r="AG10">
         <v>10.5</v>
       </c>
-      <c r="AG10">
-        <v>980</v>
-      </c>
       <c r="AH10">
-        <v>2.2</v>
+        <v>15.5</v>
       </c>
       <c r="AI10">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AJ10">
-        <v>5.7</v>
+        <v>27</v>
       </c>
       <c r="AK10">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL10">
+        <v>15.5</v>
+      </c>
+      <c r="AM10">
+        <v>16.5</v>
+      </c>
+      <c r="AN10">
+        <v>14.5</v>
+      </c>
+      <c r="AO10">
+        <v>16</v>
+      </c>
+      <c r="AP10">
+        <v>19.5</v>
+      </c>
+      <c r="AQ10">
+        <v>26</v>
+      </c>
+      <c r="AR10">
+        <v>10.5</v>
+      </c>
+      <c r="AS10">
+        <v>95</v>
+      </c>
+      <c r="AT10">
+        <v>32</v>
+      </c>
+      <c r="AU10">
+        <v>48</v>
+      </c>
+      <c r="AV10">
+        <v>32</v>
+      </c>
+      <c r="AW10">
+        <v>50</v>
+      </c>
+      <c r="AX10">
+        <v>10</v>
+      </c>
+      <c r="AY10">
+        <v>65</v>
+      </c>
+      <c r="AZ10">
+        <v>21</v>
+      </c>
+      <c r="BA10">
+        <v>34</v>
+      </c>
+      <c r="BB10">
+        <v>6.8</v>
+      </c>
+      <c r="BC10">
+        <v>8.6</v>
+      </c>
+      <c r="BD10">
         <v>12</v>
       </c>
-      <c r="AM10">
-        <v>980</v>
-      </c>
-      <c r="AN10">
-        <v>2.2</v>
-      </c>
-      <c r="AO10">
-        <v>1000</v>
-      </c>
-      <c r="AP10">
-        <v>1.91</v>
-      </c>
-      <c r="AQ10">
-        <v>1000</v>
-      </c>
-      <c r="AR10">
-        <v>1.86</v>
-      </c>
-      <c r="AS10">
-        <v>1000</v>
-      </c>
-      <c r="AT10">
-        <v>2.08</v>
-      </c>
-      <c r="AU10">
-        <v>1000</v>
-      </c>
-      <c r="AV10">
-        <v>1.87</v>
-      </c>
-      <c r="AW10">
-        <v>980</v>
-      </c>
-      <c r="AX10">
-        <v>1.59</v>
-      </c>
-      <c r="AY10">
-        <v>1000</v>
-      </c>
-      <c r="AZ10">
-        <v>1.55</v>
-      </c>
-      <c r="BA10">
-        <v>1000</v>
-      </c>
-      <c r="BB10">
-        <v>1.52</v>
-      </c>
-      <c r="BC10">
-        <v>1000</v>
-      </c>
-      <c r="BD10">
-        <v>1.52</v>
-      </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BG10">
-        <v>194509</v>
+        <v>48043</v>
       </c>
       <c r="BH10">
-        <v>17304</v>
+        <v>48324</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="BK10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="BL10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="BM10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F11">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="G11">
-        <v>8.800000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="H11">
-        <v>1.38</v>
+        <v>2.98</v>
       </c>
       <c r="I11">
-        <v>1.81</v>
+        <v>3.05</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="K11">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="L11">
-        <v>1.08</v>
+        <v>2.28</v>
       </c>
       <c r="M11">
-        <v>990</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O11">
+        <v>1.79</v>
+      </c>
+      <c r="P11">
+        <v>1.62</v>
+      </c>
+      <c r="Q11">
+        <v>1.67</v>
+      </c>
+      <c r="R11">
+        <v>2.5</v>
+      </c>
+      <c r="S11">
+        <v>2.62</v>
+      </c>
+      <c r="T11">
+        <v>16.5</v>
+      </c>
+      <c r="U11">
+        <v>18</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>15</v>
+      </c>
+      <c r="X11">
+        <v>19.5</v>
+      </c>
+      <c r="Y11">
+        <v>21</v>
+      </c>
+      <c r="Z11">
+        <v>38</v>
+      </c>
+      <c r="AA11">
+        <v>50</v>
+      </c>
+      <c r="AB11">
+        <v>12.5</v>
+      </c>
+      <c r="AC11">
         <v>13.5</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BF11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BG11">
-        <v>44232344</v>
+        <v>5774350</v>
       </c>
       <c r="BH11">
-        <v>474678</v>
+        <v>2426</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="BK11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12">
+        <v>2.88</v>
+      </c>
+      <c r="G12">
+        <v>3.6</v>
+      </c>
+      <c r="H12">
+        <v>2.44</v>
+      </c>
+      <c r="I12">
+        <v>2.96</v>
+      </c>
+      <c r="J12">
+        <v>2.86</v>
+      </c>
+      <c r="K12">
+        <v>3.55</v>
+      </c>
+      <c r="L12">
+        <v>1.55</v>
+      </c>
+      <c r="M12">
+        <v>1.72</v>
+      </c>
+      <c r="N12">
+        <v>2.4</v>
+      </c>
+      <c r="O12">
+        <v>2.82</v>
+      </c>
+      <c r="P12">
+        <v>1.97</v>
+      </c>
+      <c r="Q12">
+        <v>2.32</v>
+      </c>
+      <c r="R12">
+        <v>1.75</v>
+      </c>
+      <c r="S12">
+        <v>2.04</v>
+      </c>
+      <c r="T12">
+        <v>7.6</v>
+      </c>
+      <c r="U12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>980</v>
+      </c>
+      <c r="X12">
+        <v>5.4</v>
+      </c>
+      <c r="Y12">
+        <v>980</v>
+      </c>
+      <c r="Z12">
+        <v>1.91</v>
+      </c>
+      <c r="AA12">
+        <v>1000</v>
+      </c>
+      <c r="AB12">
+        <v>7.8</v>
+      </c>
+      <c r="AC12">
+        <v>980</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>980</v>
+      </c>
+      <c r="AF12">
+        <v>10.5</v>
+      </c>
+      <c r="AG12">
+        <v>980</v>
+      </c>
+      <c r="AH12">
+        <v>2.2</v>
+      </c>
+      <c r="AI12">
+        <v>1000</v>
+      </c>
+      <c r="AJ12">
+        <v>5.7</v>
+      </c>
+      <c r="AK12">
+        <v>980</v>
+      </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <v>980</v>
+      </c>
+      <c r="AN12">
+        <v>2.2</v>
+      </c>
+      <c r="AO12">
+        <v>1000</v>
+      </c>
+      <c r="AP12">
+        <v>1.91</v>
+      </c>
+      <c r="AQ12">
+        <v>1000</v>
+      </c>
+      <c r="AR12">
+        <v>1.86</v>
+      </c>
+      <c r="AS12">
+        <v>1000</v>
+      </c>
+      <c r="AT12">
+        <v>2.08</v>
+      </c>
+      <c r="AU12">
+        <v>1000</v>
+      </c>
+      <c r="AV12">
+        <v>1.87</v>
+      </c>
+      <c r="AW12">
+        <v>980</v>
+      </c>
+      <c r="AX12">
+        <v>1.59</v>
+      </c>
+      <c r="AY12">
+        <v>1000</v>
+      </c>
+      <c r="AZ12">
+        <v>1.55</v>
+      </c>
+      <c r="BA12">
+        <v>1000</v>
+      </c>
+      <c r="BB12">
+        <v>1.52</v>
+      </c>
+      <c r="BC12">
+        <v>1000</v>
+      </c>
+      <c r="BD12">
+        <v>1.52</v>
+      </c>
+      <c r="BE12">
+        <v>1000</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG12">
+        <v>194509</v>
+      </c>
+      <c r="BH12">
+        <v>17304</v>
+      </c>
+      <c r="BI12">
+        <v>58805</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>130</v>
       </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
+      <c r="BK12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13">
+        <v>1.04</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>1.56</v>
+      </c>
+      <c r="I13">
+        <v>2.28</v>
+      </c>
+      <c r="J13">
+        <v>1.03</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>1.34</v>
+      </c>
+      <c r="M13">
+        <v>2.22</v>
+      </c>
+      <c r="N13">
+        <v>1.81</v>
+      </c>
+      <c r="O13">
+        <v>3.95</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG13">
+        <v>44232344</v>
+      </c>
+      <c r="BH13">
+        <v>474678</v>
+      </c>
+      <c r="BI13">
+        <v>58805</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
   <si>
     <t>League</t>
   </si>
@@ -481,6 +481,9 @@
     <t>1.228071233</t>
   </si>
   <si>
+    <t>1.228224345</t>
+  </si>
+  <si>
     <t>1.228234637</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>1.228071234</t>
+  </si>
+  <si>
+    <t>1.228224270</t>
   </si>
 </sst>
 </file>
@@ -1089,121 +1095,121 @@
         <v>96</v>
       </c>
       <c r="F2">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G2">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="J2">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K2">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
         <v>2.32</v>
       </c>
       <c r="M2">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="N2">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O2">
         <v>1.76</v>
       </c>
       <c r="P2">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q2">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R2">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T2">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="U2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V2">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="W2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X2">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="Y2">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="Z2">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="AA2">
-        <v>350</v>
+        <v>980</v>
       </c>
       <c r="AB2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD2">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AE2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AG2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AI2">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AJ2">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK2">
         <v>11</v>
       </c>
       <c r="AL2">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM2">
         <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP2">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AR2">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS2">
         <v>14.5</v>
@@ -1212,34 +1218,34 @@
         <v>11.5</v>
       </c>
       <c r="AU2">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AV2">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AW2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AY2">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AZ2">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="BA2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BB2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="BD2">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1266,7 +1272,7 @@
         <v>144</v>
       </c>
       <c r="BM2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1286,157 +1292,157 @@
         <v>97</v>
       </c>
       <c r="F3">
-        <v>1.04</v>
+        <v>2.98</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H3">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L3">
-        <v>1.07</v>
+        <v>1.84</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="N3">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="P3">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="R3">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="S3">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="T3">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="V3">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="W3">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="X3">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z3">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AC3">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD3">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AE3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AG3">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH3">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AI3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AK3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AM3">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AN3">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="AO3">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP3">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AQ3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR3">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT3">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV3">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="BD3">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1463,7 +1469,7 @@
         <v>145</v>
       </c>
       <c r="BM3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1483,157 +1489,157 @@
         <v>98</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K4">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="N4">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="O4">
-        <v>21</v>
+        <v>2.44</v>
       </c>
       <c r="P4">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="R4">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="S4">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="T4">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="U4">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="V4">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="W4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>1.01</v>
+        <v>13</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z4">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AA4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AC4">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD4">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AE4">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AF4">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AG4">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH4">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ4">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AK4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AM4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AO4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR4">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AS4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT4">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AU4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV4">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AW4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX4">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ4">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BA4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB4">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BC4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD4">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1660,7 +1666,7 @@
         <v>146</v>
       </c>
       <c r="BM4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1680,157 +1686,157 @@
         <v>99</v>
       </c>
       <c r="F5">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J5">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L5">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="O5">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P5">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q5">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R5">
         <v>2.3</v>
       </c>
       <c r="S5">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T5">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="U5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V5">
-        <v>5.3</v>
+        <v>16</v>
       </c>
       <c r="W5">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="Y5">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z5">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA5">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AB5">
         <v>10</v>
       </c>
       <c r="AC5">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD5">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE5">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG5">
         <v>17.5</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AI5">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="AK5">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL5">
         <v>9.4</v>
       </c>
       <c r="AM5">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="AO5">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AQ5">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>5.6</v>
+        <v>17.5</v>
       </c>
       <c r="AS5">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AT5">
-        <v>5.4</v>
+        <v>16</v>
       </c>
       <c r="AU5">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AV5">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AW5">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AX5">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY5">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="BA5">
         <v>11</v>
       </c>
       <c r="BB5">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BC5">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1857,7 +1863,7 @@
         <v>147</v>
       </c>
       <c r="BM5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1877,157 +1883,157 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G6">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J6">
         <v>3.25</v>
       </c>
       <c r="K6">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N6">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O6">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="P6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q6">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R6">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U6">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V6">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="W6">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="X6">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y6">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AA6">
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="AC6">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD6">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE6">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AF6">
-        <v>3.45</v>
+        <v>13.5</v>
       </c>
       <c r="AG6">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="AI6">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="AK6">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AL6">
-        <v>3.25</v>
+        <v>9.4</v>
       </c>
       <c r="AM6">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO6">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="AQ6">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AR6">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AS6">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AT6">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="AU6">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AV6">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AW6">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AX6">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="AY6">
         <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="BA6">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="BB6">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="BC6">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="BD6">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2054,7 +2060,7 @@
         <v>148</v>
       </c>
       <c r="BM6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2074,46 +2080,46 @@
         <v>101</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G7">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H7">
         <v>2.46</v>
       </c>
       <c r="I7">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J7">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K7">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="M7">
+        <v>1.92</v>
+      </c>
+      <c r="N7">
+        <v>2.08</v>
+      </c>
+      <c r="O7">
+        <v>2.2</v>
+      </c>
+      <c r="P7">
+        <v>1.87</v>
+      </c>
+      <c r="Q7">
         <v>1.93</v>
       </c>
-      <c r="N7">
-        <v>2.06</v>
-      </c>
-      <c r="O7">
-        <v>2.22</v>
-      </c>
-      <c r="P7">
-        <v>1.83</v>
-      </c>
-      <c r="Q7">
-        <v>1.95</v>
-      </c>
       <c r="R7">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S7">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -2125,106 +2131,106 @@
         <v>8.4</v>
       </c>
       <c r="W7">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y7">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z7">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE7">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AF7">
         <v>10</v>
       </c>
       <c r="AG7">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7">
         <v>32</v>
       </c>
       <c r="AJ7">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK7">
         <v>22</v>
       </c>
       <c r="AL7">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AM7">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN7">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO7">
         <v>21</v>
       </c>
       <c r="AP7">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AQ7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR7">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AS7">
         <v>55</v>
       </c>
       <c r="AT7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU7">
         <v>40</v>
       </c>
       <c r="AV7">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AW7">
         <v>55</v>
       </c>
       <c r="AX7">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AY7">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AZ7">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="BA7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB7">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="BC7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2251,7 +2257,7 @@
         <v>149</v>
       </c>
       <c r="BM7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2274,154 +2280,154 @@
         <v>2.38</v>
       </c>
       <c r="G8">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I8">
         <v>4.1</v>
       </c>
       <c r="J8">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M8">
+        <v>1.55</v>
+      </c>
+      <c r="N8">
+        <v>2.2</v>
+      </c>
+      <c r="O8">
+        <v>3.75</v>
+      </c>
+      <c r="P8">
+        <v>2.18</v>
+      </c>
+      <c r="Q8">
+        <v>2.64</v>
+      </c>
+      <c r="R8">
         <v>1.61</v>
-      </c>
-      <c r="N8">
-        <v>2.62</v>
-      </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
-      <c r="P8">
-        <v>2.2</v>
-      </c>
-      <c r="Q8">
-        <v>2.68</v>
-      </c>
-      <c r="R8">
-        <v>1.6</v>
       </c>
       <c r="S8">
         <v>1.84</v>
       </c>
       <c r="T8">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="U8">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="V8">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
       <c r="W8">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="X8">
-        <v>1.03</v>
+        <v>4.6</v>
       </c>
       <c r="Y8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z8">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="AC8">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD8">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="AE8">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AF8">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="AG8">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH8">
-        <v>1.03</v>
+        <v>5.2</v>
       </c>
       <c r="AI8">
         <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AK8">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL8">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="AM8">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AN8">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="AO8">
         <v>1000</v>
       </c>
       <c r="AP8">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="AS8">
         <v>1000</v>
       </c>
       <c r="AT8">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AW8">
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.03</v>
+        <v>8.4</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="BC8">
         <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.02</v>
+        <v>5.6</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2448,7 +2454,7 @@
         <v>150</v>
       </c>
       <c r="BM8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2468,157 +2474,157 @@
         <v>103</v>
       </c>
       <c r="F9">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="G9">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H9">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="I9">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="J9">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K9">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="L9">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="M9">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="N9">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="O9">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P9">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="R9">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="S9">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="T9">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="U9">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V9">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="W9">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X9">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="Y9">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z9">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AA9">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB9">
-        <v>3.25</v>
+        <v>9.4</v>
       </c>
       <c r="AC9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD9">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE9">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF9">
-        <v>3.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9">
         <v>15</v>
       </c>
       <c r="AH9">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AI9">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ9">
-        <v>3.65</v>
+        <v>15.5</v>
       </c>
       <c r="AK9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="AM9">
         <v>16.5</v>
       </c>
       <c r="AN9">
-        <v>3.6</v>
+        <v>16.5</v>
       </c>
       <c r="AO9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AQ9">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AR9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AS9">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AT9">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AU9">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AV9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AW9">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AX9">
+        <v>4.3</v>
+      </c>
+      <c r="AY9">
+        <v>980</v>
+      </c>
+      <c r="AZ9">
         <v>4.1</v>
       </c>
-      <c r="AY9">
-        <v>1000</v>
-      </c>
-      <c r="AZ9">
-        <v>3.85</v>
-      </c>
       <c r="BA9">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="BB9">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="BC9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2645,7 +2651,7 @@
         <v>151</v>
       </c>
       <c r="BM9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2665,16 +2671,16 @@
         <v>104</v>
       </c>
       <c r="F10">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H10">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="I10">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="J10">
         <v>4.2</v>
@@ -2683,64 +2689,64 @@
         <v>4.3</v>
       </c>
       <c r="L10">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="M10">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="N10">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="O10">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P10">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="Q10">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="R10">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="S10">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="T10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V10">
         <v>12.5</v>
       </c>
       <c r="W10">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X10">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y10">
         <v>14.5</v>
       </c>
       <c r="Z10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA10">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AD10">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AE10">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF10">
         <v>9.6</v>
@@ -2749,76 +2755,76 @@
         <v>10.5</v>
       </c>
       <c r="AH10">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI10">
+        <v>16</v>
+      </c>
+      <c r="AJ10">
+        <v>34</v>
+      </c>
+      <c r="AK10">
+        <v>38</v>
+      </c>
+      <c r="AL10">
+        <v>16</v>
+      </c>
+      <c r="AM10">
         <v>17</v>
-      </c>
-      <c r="AJ10">
-        <v>27</v>
-      </c>
-      <c r="AK10">
-        <v>40</v>
-      </c>
-      <c r="AL10">
-        <v>15.5</v>
-      </c>
-      <c r="AM10">
-        <v>16.5</v>
       </c>
       <c r="AN10">
         <v>14.5</v>
       </c>
       <c r="AO10">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP10">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AQ10">
         <v>26</v>
       </c>
       <c r="AR10">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AS10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AT10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AU10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AV10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AW10">
+        <v>42</v>
+      </c>
+      <c r="AX10">
         <v>50</v>
-      </c>
-      <c r="AX10">
-        <v>10</v>
       </c>
       <c r="AY10">
         <v>65</v>
       </c>
       <c r="AZ10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BB10">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC10">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BD10">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="BE10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF10" t="s">
         <v>116</v>
@@ -2842,7 +2848,7 @@
         <v>152</v>
       </c>
       <c r="BM10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2862,16 +2868,16 @@
         <v>105</v>
       </c>
       <c r="F11">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G11">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H11">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="I11">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J11">
         <v>3.6</v>
@@ -2880,40 +2886,40 @@
         <v>3.65</v>
       </c>
       <c r="L11">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N11">
         <v>1.76</v>
       </c>
       <c r="O11">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="P11">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q11">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R11">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="S11">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T11">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="U11">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V11">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W11">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X11">
         <v>19.5</v>
@@ -2922,13 +2928,13 @@
         <v>21</v>
       </c>
       <c r="Z11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA11">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB11">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11">
         <v>13.5</v>
@@ -2937,22 +2943,22 @@
         <v>7.8</v>
       </c>
       <c r="AE11">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AF11">
         <v>12</v>
       </c>
       <c r="AG11">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH11">
         <v>26</v>
       </c>
       <c r="AI11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ11">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK11">
         <v>18</v>
@@ -2973,10 +2979,10 @@
         <v>32</v>
       </c>
       <c r="AQ11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AS11">
         <v>36</v>
@@ -2991,31 +2997,31 @@
         <v>30</v>
       </c>
       <c r="AW11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX11">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY11">
         <v>65</v>
       </c>
       <c r="AZ11">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BB11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BD11">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="BE11">
-        <v>980</v>
+        <v>460</v>
       </c>
       <c r="BF11" t="s">
         <v>117</v>
@@ -3039,7 +3045,7 @@
         <v>153</v>
       </c>
       <c r="BM11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3059,37 +3065,37 @@
         <v>106</v>
       </c>
       <c r="F12">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G12">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H12">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="I12">
+        <v>2.78</v>
+      </c>
+      <c r="J12">
         <v>2.96</v>
       </c>
-      <c r="J12">
-        <v>2.86</v>
-      </c>
       <c r="K12">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
         <v>1.55</v>
       </c>
       <c r="M12">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
         <v>2.82</v>
       </c>
       <c r="P12">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q12">
         <v>2.32</v>
@@ -3098,58 +3104,58 @@
         <v>1.75</v>
       </c>
       <c r="S12">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T12">
         <v>7.6</v>
       </c>
       <c r="U12">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>7.4</v>
+      </c>
+      <c r="W12">
+        <v>8.6</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>16.5</v>
+      </c>
+      <c r="Z12">
+        <v>4.9</v>
+      </c>
+      <c r="AA12">
+        <v>44</v>
+      </c>
+      <c r="AB12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC12">
         <v>9.800000000000001</v>
       </c>
-      <c r="V12">
+      <c r="AD12">
+        <v>6.4</v>
+      </c>
+      <c r="AE12">
+        <v>7.4</v>
+      </c>
+      <c r="AF12">
+        <v>11.5</v>
+      </c>
+      <c r="AG12">
+        <v>14</v>
+      </c>
+      <c r="AH12">
         <v>7</v>
-      </c>
-      <c r="W12">
-        <v>980</v>
-      </c>
-      <c r="X12">
-        <v>5.4</v>
-      </c>
-      <c r="Y12">
-        <v>980</v>
-      </c>
-      <c r="Z12">
-        <v>1.91</v>
-      </c>
-      <c r="AA12">
-        <v>1000</v>
-      </c>
-      <c r="AB12">
-        <v>7.8</v>
-      </c>
-      <c r="AC12">
-        <v>980</v>
-      </c>
-      <c r="AD12">
-        <v>6</v>
-      </c>
-      <c r="AE12">
-        <v>980</v>
-      </c>
-      <c r="AF12">
-        <v>10.5</v>
-      </c>
-      <c r="AG12">
-        <v>980</v>
-      </c>
-      <c r="AH12">
-        <v>2.2</v>
       </c>
       <c r="AI12">
         <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>5.7</v>
+        <v>18</v>
       </c>
       <c r="AK12">
         <v>980</v>
@@ -3161,55 +3167,55 @@
         <v>980</v>
       </c>
       <c r="AN12">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="AO12">
         <v>1000</v>
       </c>
       <c r="AP12">
-        <v>1.91</v>
+        <v>4.1</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
       </c>
       <c r="AR12">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>2.08</v>
+        <v>3.85</v>
       </c>
       <c r="AU12">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AV12">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="AW12">
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="BA12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB12">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="BC12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD12">
-        <v>1.52</v>
+        <v>3.25</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3236,7 +3242,7 @@
         <v>154</v>
       </c>
       <c r="BM12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3256,160 +3262,160 @@
         <v>107</v>
       </c>
       <c r="F13">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="G13">
-        <v>75</v>
+        <v>7.6</v>
       </c>
       <c r="H13">
         <v>1.56</v>
       </c>
       <c r="I13">
+        <v>1.7</v>
+      </c>
+      <c r="J13">
+        <v>3.85</v>
+      </c>
+      <c r="K13">
+        <v>5.4</v>
+      </c>
+      <c r="L13">
+        <v>1.92</v>
+      </c>
+      <c r="M13">
         <v>2.28</v>
       </c>
-      <c r="J13">
-        <v>1.03</v>
-      </c>
-      <c r="K13">
+      <c r="N13">
+        <v>1.78</v>
+      </c>
+      <c r="O13">
+        <v>2.08</v>
+      </c>
+      <c r="P13">
+        <v>1.9</v>
+      </c>
+      <c r="Q13">
+        <v>2.64</v>
+      </c>
+      <c r="R13">
+        <v>1.61</v>
+      </c>
+      <c r="S13">
+        <v>2.68</v>
+      </c>
+      <c r="T13">
+        <v>1.53</v>
+      </c>
+      <c r="U13">
+        <v>17.5</v>
+      </c>
+      <c r="V13">
+        <v>2.42</v>
+      </c>
+      <c r="W13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X13">
+        <v>2.7</v>
+      </c>
+      <c r="Y13">
+        <v>10.5</v>
+      </c>
+      <c r="Z13">
+        <v>3.55</v>
+      </c>
+      <c r="AA13">
+        <v>17</v>
+      </c>
+      <c r="AB13">
+        <v>1.27</v>
+      </c>
+      <c r="AC13">
+        <v>24</v>
+      </c>
+      <c r="AD13">
+        <v>2.84</v>
+      </c>
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13">
+        <v>5.3</v>
+      </c>
+      <c r="AG13">
+        <v>11</v>
+      </c>
+      <c r="AH13">
+        <v>2.3</v>
+      </c>
+      <c r="AI13">
+        <v>19</v>
+      </c>
+      <c r="AJ13">
+        <v>3.05</v>
+      </c>
+      <c r="AK13">
         <v>1000</v>
       </c>
-      <c r="L13">
-        <v>1.34</v>
-      </c>
-      <c r="M13">
-        <v>2.22</v>
-      </c>
-      <c r="N13">
-        <v>1.81</v>
-      </c>
-      <c r="O13">
-        <v>3.95</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
         <v>119</v>
@@ -3429,11 +3435,11 @@
       <c r="BK13" t="s">
         <v>143</v>
       </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+      <c r="BL13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -1098,7 +1098,7 @@
         <v>1.38</v>
       </c>
       <c r="G2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H2">
         <v>8.4</v>
@@ -1113,7 +1113,7 @@
         <v>5.5</v>
       </c>
       <c r="L2">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="M2">
         <v>2.54</v>
@@ -1122,40 +1122,40 @@
         <v>1.64</v>
       </c>
       <c r="O2">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="P2">
+        <v>1.88</v>
+      </c>
+      <c r="Q2">
+        <v>2.16</v>
+      </c>
+      <c r="R2">
         <v>1.87</v>
-      </c>
-      <c r="Q2">
-        <v>2.1</v>
-      </c>
-      <c r="R2">
-        <v>1.9</v>
       </c>
       <c r="S2">
         <v>2.14</v>
       </c>
       <c r="T2">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="U2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="W2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="X2">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="Y2">
         <v>980</v>
       </c>
       <c r="Z2">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA2">
         <v>980</v>
@@ -1164,22 +1164,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC2">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF2">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AG2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AH2">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AI2">
         <v>980</v>
@@ -1191,25 +1191,25 @@
         <v>11</v>
       </c>
       <c r="AL2">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN2">
         <v>20</v>
       </c>
       <c r="AO2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP2">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ2">
         <v>980</v>
       </c>
       <c r="AR2">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AS2">
         <v>14.5</v>
@@ -1218,34 +1218,34 @@
         <v>11.5</v>
       </c>
       <c r="AU2">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AV2">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="AW2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX2">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AY2">
         <v>980</v>
       </c>
       <c r="AZ2">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="BA2">
         <v>6.4</v>
       </c>
       <c r="BB2">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="BC2">
         <v>980</v>
       </c>
       <c r="BD2">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1292,157 +1292,157 @@
         <v>97</v>
       </c>
       <c r="F3">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="G3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I3">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K3">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L3">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="M3">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N3">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P3">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Q3">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="R3">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="U3">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V3">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="W3">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="X3">
         <v>13</v>
       </c>
       <c r="Y3">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z3">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="AA3">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB3">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC3">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD3">
         <v>7.2</v>
       </c>
       <c r="AE3">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF3">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3">
         <v>14</v>
       </c>
       <c r="AH3">
-        <v>4.9</v>
+        <v>21</v>
       </c>
       <c r="AI3">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK3">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL3">
         <v>12</v>
       </c>
       <c r="AM3">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN3">
         <v>16</v>
       </c>
       <c r="AO3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP3">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="AQ3">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AR3">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="AS3">
         <v>980</v>
       </c>
       <c r="AT3">
-        <v>5.2</v>
+        <v>28</v>
       </c>
       <c r="AU3">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AV3">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AW3">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX3">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AY3">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ3">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="BA3">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="BB3">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="BC3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD3">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1492,64 +1492,64 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
         <v>2.46</v>
       </c>
       <c r="I4">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L4">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M4">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="N4">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="P4">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q4">
         <v>2.12</v>
       </c>
       <c r="R4">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T4">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U4">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="V4">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W4">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="X4">
         <v>13</v>
       </c>
       <c r="Y4">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA4">
         <v>980</v>
@@ -1558,13 +1558,13 @@
         <v>9</v>
       </c>
       <c r="AC4">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD4">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE4">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AF4">
         <v>10</v>
@@ -1573,7 +1573,7 @@
         <v>13.5</v>
       </c>
       <c r="AH4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4">
         <v>980</v>
@@ -1582,13 +1582,13 @@
         <v>17.5</v>
       </c>
       <c r="AK4">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL4">
         <v>12</v>
       </c>
       <c r="AM4">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AN4">
         <v>16.5</v>
@@ -1597,49 +1597,49 @@
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AQ4">
         <v>980</v>
       </c>
       <c r="AR4">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AS4">
         <v>980</v>
       </c>
       <c r="AT4">
-        <v>7.2</v>
+        <v>29</v>
       </c>
       <c r="AU4">
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AY4">
         <v>980</v>
       </c>
       <c r="AZ4">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="BA4">
         <v>980</v>
       </c>
       <c r="BB4">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="BC4">
         <v>980</v>
       </c>
       <c r="BD4">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1686,31 +1686,31 @@
         <v>99</v>
       </c>
       <c r="F5">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I5">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
         <v>3.75</v>
       </c>
       <c r="K5">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L5">
         <v>2.22</v>
       </c>
       <c r="M5">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="N5">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="O5">
         <v>1.82</v>
@@ -1728,25 +1728,25 @@
         <v>2.52</v>
       </c>
       <c r="T5">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="U5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W5">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="X5">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y5">
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AA5">
         <v>980</v>
@@ -1761,31 +1761,31 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE5">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF5">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG5">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AH5">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AI5">
         <v>980</v>
       </c>
       <c r="AJ5">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK5">
         <v>14.5</v>
       </c>
       <c r="AL5">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM5">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AN5">
         <v>14.5</v>
@@ -1794,49 +1794,49 @@
         <v>980</v>
       </c>
       <c r="AP5">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AQ5">
         <v>980</v>
       </c>
       <c r="AR5">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AS5">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AT5">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU5">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AV5">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AW5">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AX5">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BA5">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BB5">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="BC5">
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1883,91 +1883,91 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H6">
         <v>3.5</v>
       </c>
       <c r="I6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L6">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="M6">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O6">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="P6">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q6">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S6">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T6">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="U6">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V6">
         <v>11</v>
       </c>
       <c r="W6">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="X6">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Y6">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z6">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AA6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC6">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD6">
         <v>6.8</v>
       </c>
       <c r="AE6">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AF6">
         <v>13.5</v>
       </c>
       <c r="AG6">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH6">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -1982,58 +1982,58 @@
         <v>9.4</v>
       </c>
       <c r="AM6">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AN6">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO6">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP6">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AS6">
         <v>980</v>
       </c>
       <c r="AT6">
-        <v>4.6</v>
+        <v>20</v>
       </c>
       <c r="AU6">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV6">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AW6">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AX6">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="AY6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="BA6">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="BB6">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2080,19 +2080,19 @@
         <v>101</v>
       </c>
       <c r="F7">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G7">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
         <v>2.46</v>
       </c>
       <c r="I7">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J7">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K7">
         <v>3.55</v>
@@ -2140,7 +2140,7 @@
         <v>15.5</v>
       </c>
       <c r="Z7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA7">
         <v>38</v>
@@ -2179,7 +2179,7 @@
         <v>12.5</v>
       </c>
       <c r="AM7">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN7">
         <v>16.5</v>
@@ -2188,25 +2188,25 @@
         <v>21</v>
       </c>
       <c r="AP7">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ7">
         <v>48</v>
       </c>
       <c r="AR7">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS7">
         <v>55</v>
       </c>
       <c r="AT7">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU7">
         <v>40</v>
       </c>
       <c r="AV7">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW7">
         <v>55</v>
@@ -2218,13 +2218,13 @@
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA7">
         <v>36</v>
       </c>
       <c r="BB7">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BC7">
         <v>25</v>
@@ -2277,34 +2277,34 @@
         <v>102</v>
       </c>
       <c r="F8">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G8">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I8">
         <v>4.1</v>
       </c>
       <c r="J8">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="K8">
+        <v>3.25</v>
+      </c>
+      <c r="L8">
+        <v>1.4</v>
+      </c>
+      <c r="M8">
+        <v>1.53</v>
+      </c>
+      <c r="N8">
+        <v>2.88</v>
+      </c>
+      <c r="O8">
         <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>1.36</v>
-      </c>
-      <c r="M8">
-        <v>1.55</v>
-      </c>
-      <c r="N8">
-        <v>2.2</v>
-      </c>
-      <c r="O8">
-        <v>3.75</v>
       </c>
       <c r="P8">
         <v>2.18</v>
@@ -2319,115 +2319,115 @@
         <v>1.84</v>
       </c>
       <c r="T8">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>980</v>
       </c>
       <c r="V8">
-        <v>2.68</v>
+        <v>7.6</v>
       </c>
       <c r="W8">
         <v>980</v>
       </c>
       <c r="X8">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="Y8">
         <v>980</v>
       </c>
       <c r="Z8">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC8">
         <v>980</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE8">
         <v>980</v>
       </c>
       <c r="AF8">
-        <v>1.77</v>
+        <v>12.5</v>
       </c>
       <c r="AG8">
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI8">
         <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="AK8">
         <v>980</v>
       </c>
       <c r="AL8">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="AM8">
         <v>980</v>
       </c>
       <c r="AN8">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1000</v>
       </c>
       <c r="AP8">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>4.9</v>
+        <v>2.08</v>
       </c>
       <c r="AS8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT8">
-        <v>5.9</v>
+        <v>2.08</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="AW8">
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>8.4</v>
+        <v>1.79</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BC8">
         <v>1000</v>
       </c>
       <c r="BD8">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2480,94 +2480,94 @@
         <v>3.2</v>
       </c>
       <c r="H9">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="I9">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="J9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="M9">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="N9">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="O9">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="P9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="R9">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S9">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="T9">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U9">
+        <v>16</v>
+      </c>
+      <c r="V9">
+        <v>7.8</v>
+      </c>
+      <c r="W9">
+        <v>13</v>
+      </c>
+      <c r="X9">
         <v>13.5</v>
-      </c>
-      <c r="V9">
-        <v>7.4</v>
-      </c>
-      <c r="W9">
-        <v>12</v>
-      </c>
-      <c r="X9">
-        <v>14</v>
       </c>
       <c r="Y9">
         <v>19.5</v>
       </c>
       <c r="Z9">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AA9">
         <v>980</v>
       </c>
       <c r="AB9">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE9">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF9">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG9">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH9">
         <v>4.1</v>
       </c>
       <c r="AI9">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ9">
         <v>15.5</v>
       </c>
       <c r="AK9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL9">
         <v>10.5</v>
@@ -2576,55 +2576,55 @@
         <v>16.5</v>
       </c>
       <c r="AN9">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AQ9">
+        <v>980</v>
+      </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <v>980</v>
+      </c>
+      <c r="AT9">
+        <v>4.1</v>
+      </c>
+      <c r="AU9">
+        <v>980</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>980</v>
+      </c>
+      <c r="AX9">
         <v>4.2</v>
       </c>
-      <c r="AQ9">
-        <v>980</v>
-      </c>
-      <c r="AR9">
+      <c r="AY9">
+        <v>980</v>
+      </c>
+      <c r="AZ9">
+        <v>3.85</v>
+      </c>
+      <c r="BA9">
+        <v>40</v>
+      </c>
+      <c r="BB9">
+        <v>3.7</v>
+      </c>
+      <c r="BC9">
+        <v>28</v>
+      </c>
+      <c r="BD9">
         <v>4.2</v>
-      </c>
-      <c r="AS9">
-        <v>980</v>
-      </c>
-      <c r="AT9">
-        <v>4.2</v>
-      </c>
-      <c r="AU9">
-        <v>980</v>
-      </c>
-      <c r="AV9">
-        <v>4.2</v>
-      </c>
-      <c r="AW9">
-        <v>980</v>
-      </c>
-      <c r="AX9">
-        <v>4.3</v>
-      </c>
-      <c r="AY9">
-        <v>980</v>
-      </c>
-      <c r="AZ9">
-        <v>4.1</v>
-      </c>
-      <c r="BA9">
-        <v>980</v>
-      </c>
-      <c r="BB9">
-        <v>3.95</v>
-      </c>
-      <c r="BC9">
-        <v>34</v>
-      </c>
-      <c r="BD9">
-        <v>4.5</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2671,16 +2671,16 @@
         <v>104</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H10">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="I10">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="J10">
         <v>4.2</v>
@@ -2689,10 +2689,10 @@
         <v>4.3</v>
       </c>
       <c r="L10">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="M10">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
         <v>1.55</v>
@@ -2701,16 +2701,16 @@
         <v>1.6</v>
       </c>
       <c r="P10">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q10">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R10">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="S10">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T10">
         <v>22</v>
@@ -2722,25 +2722,25 @@
         <v>12.5</v>
       </c>
       <c r="W10">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X10">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y10">
         <v>14.5</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA10">
         <v>21</v>
       </c>
       <c r="AB10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD10">
         <v>9.6</v>
@@ -2755,25 +2755,25 @@
         <v>10.5</v>
       </c>
       <c r="AH10">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI10">
         <v>16</v>
       </c>
       <c r="AJ10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL10">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM10">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN10">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO10">
         <v>15.5</v>
@@ -2782,46 +2782,46 @@
         <v>22</v>
       </c>
       <c r="AQ10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR10">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AS10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AT10">
         <v>38</v>
       </c>
       <c r="AU10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AV10">
         <v>38</v>
       </c>
       <c r="AW10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX10">
         <v>50</v>
       </c>
       <c r="AY10">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AZ10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB10">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC10">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BD10">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="BE10">
         <v>980</v>
@@ -2868,58 +2868,58 @@
         <v>105</v>
       </c>
       <c r="F11">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H11">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I11">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J11">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K11">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M11">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="N11">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O11">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="P11">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q11">
         <v>1.65</v>
       </c>
       <c r="R11">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="S11">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T11">
         <v>18</v>
       </c>
       <c r="U11">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V11">
         <v>14.5</v>
       </c>
       <c r="W11">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X11">
         <v>19.5</v>
@@ -2928,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="Z11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA11">
         <v>44</v>
@@ -2937,13 +2937,13 @@
         <v>13</v>
       </c>
       <c r="AC11">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD11">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE11">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF11">
         <v>12</v>
@@ -2952,16 +2952,16 @@
         <v>12.5</v>
       </c>
       <c r="AH11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ11">
         <v>17</v>
       </c>
       <c r="AK11">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL11">
         <v>11</v>
@@ -2970,10 +2970,10 @@
         <v>11.5</v>
       </c>
       <c r="AN11">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO11">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP11">
         <v>32</v>
@@ -2985,7 +2985,7 @@
         <v>34</v>
       </c>
       <c r="AS11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AT11">
         <v>22</v>
@@ -2994,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="AV11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW11">
         <v>32</v>
@@ -3012,7 +3012,7 @@
         <v>16.5</v>
       </c>
       <c r="BB11">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BC11">
         <v>19.5</v>
@@ -3065,7 +3065,7 @@
         <v>106</v>
       </c>
       <c r="F12">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G12">
         <v>3.55</v>
@@ -3074,7 +3074,7 @@
         <v>2.56</v>
       </c>
       <c r="I12">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J12">
         <v>2.96</v>
@@ -3083,28 +3083,28 @@
         <v>3.2</v>
       </c>
       <c r="L12">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M12">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O12">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R12">
         <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T12">
         <v>7.6</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="AH12">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AI12">
         <v>1000</v>
@@ -3173,7 +3173,7 @@
         <v>1000</v>
       </c>
       <c r="AP12">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
@@ -3185,13 +3185,13 @@
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AU12">
         <v>60</v>
       </c>
       <c r="AV12">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="AW12">
         <v>980</v>
@@ -3277,22 +3277,22 @@
         <v>3.85</v>
       </c>
       <c r="K13">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="M13">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="N13">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="O13">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q13">
         <v>2.64</v>
@@ -3301,118 +3301,118 @@
         <v>1.61</v>
       </c>
       <c r="S13">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="T13">
-        <v>1.53</v>
+        <v>5.2</v>
       </c>
       <c r="U13">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <v>9.199999999999999</v>
       </c>
       <c r="X13">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="Y13">
         <v>10.5</v>
       </c>
       <c r="Z13">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="AA13">
         <v>17</v>
       </c>
       <c r="AB13">
-        <v>1.27</v>
+        <v>5.2</v>
       </c>
       <c r="AC13">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="AE13">
         <v>11</v>
       </c>
       <c r="AF13">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG13">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="AI13">
         <v>19</v>
       </c>
       <c r="AJ13">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="AK13">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL13">
-        <v>1.27</v>
+        <v>5.4</v>
       </c>
       <c r="AM13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>1.27</v>
+        <v>5.3</v>
       </c>
       <c r="AO13">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>5.8</v>
       </c>
       <c r="AQ13">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AR13">
-        <v>1.27</v>
+        <v>6.4</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>6.4</v>
       </c>
       <c r="AU13">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AV13">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="AW13">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AX13">
-        <v>1.27</v>
+        <v>6.4</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>1.27</v>
+        <v>6.4</v>
       </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="BB13">
-        <v>1.67</v>
+        <v>4</v>
       </c>
       <c r="BC13">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BD13">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="BE13">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>League</t>
   </si>
@@ -232,6 +232,9 @@
     <t>UEFA Champions League</t>
   </si>
   <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
     <t>Argentinian Copa de la Liga Profesional</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>16:00:00</t>
   </si>
   <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
     <t>20:00:00</t>
   </si>
   <si>
@@ -298,6 +304,9 @@
     <t>Bayern Munich</t>
   </si>
   <si>
+    <t>CD Hermanos Colmenarez</t>
+  </si>
+  <si>
     <t>Estudiantes</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Deportivo La Guaira</t>
+  </si>
+  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
@@ -370,6 +382,9 @@
     <t>33201948</t>
   </si>
   <si>
+    <t>33234349</t>
+  </si>
+  <si>
     <t>33214825</t>
   </si>
   <si>
@@ -406,6 +421,9 @@
     <t>1.227765782</t>
   </si>
   <si>
+    <t>1.228305899</t>
+  </si>
+  <si>
     <t>1.228071186</t>
   </si>
   <si>
@@ -442,6 +460,9 @@
     <t>1.227765721</t>
   </si>
   <si>
+    <t>1.228305944</t>
+  </si>
+  <si>
     <t>1.228071189</t>
   </si>
   <si>
@@ -478,6 +499,9 @@
     <t>1.227765781</t>
   </si>
   <si>
+    <t>1.228305983</t>
+  </si>
+  <si>
     <t>1.228071233</t>
   </si>
   <si>
@@ -512,6 +536,9 @@
   </si>
   <si>
     <t>1.227765792</t>
+  </si>
+  <si>
+    <t>1.228305908</t>
   </si>
   <si>
     <t>1.228071234</t>
@@ -875,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,37 +1110,37 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F2">
+        <v>1.35</v>
+      </c>
+      <c r="G2">
         <v>1.38</v>
       </c>
-      <c r="G2">
-        <v>1.44</v>
-      </c>
       <c r="H2">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I2">
         <v>10.5</v>
       </c>
       <c r="J2">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="K2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L2">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="M2">
         <v>2.54</v>
@@ -1122,16 +1149,16 @@
         <v>1.64</v>
       </c>
       <c r="O2">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P2">
         <v>1.88</v>
       </c>
       <c r="Q2">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R2">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S2">
         <v>2.14</v>
@@ -1143,19 +1170,19 @@
         <v>27</v>
       </c>
       <c r="V2">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="W2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X2">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y2">
         <v>980</v>
       </c>
       <c r="Z2">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AA2">
         <v>980</v>
@@ -1167,43 +1194,43 @@
         <v>12</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE2">
         <v>15</v>
       </c>
       <c r="AF2">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH2">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI2">
         <v>980</v>
       </c>
       <c r="AJ2">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AK2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL2">
         <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP2">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AQ2">
         <v>980</v>
@@ -1212,46 +1239,46 @@
         <v>10</v>
       </c>
       <c r="AS2">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT2">
         <v>11.5</v>
       </c>
       <c r="AU2">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AV2">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AW2">
         <v>42</v>
       </c>
       <c r="AX2">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AY2">
         <v>980</v>
       </c>
       <c r="AZ2">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="BA2">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="BB2">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="BC2">
         <v>980</v>
       </c>
       <c r="BD2">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BG2">
         <v>50443279</v>
@@ -1263,16 +1290,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BK2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BL2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="BM2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1280,49 +1307,49 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H3">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I3">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K3">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L3">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="M3">
         <v>2.06</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O3">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P3">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1331,49 +1358,49 @@
         <v>2.1</v>
       </c>
       <c r="S3">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T3">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="U3">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="V3">
         <v>8.6</v>
       </c>
       <c r="W3">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="X3">
         <v>13</v>
       </c>
       <c r="Y3">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z3">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AA3">
         <v>40</v>
       </c>
       <c r="AB3">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD3">
         <v>7.2</v>
       </c>
       <c r="AE3">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AF3">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3">
         <v>21</v>
@@ -1385,28 +1412,28 @@
         <v>18</v>
       </c>
       <c r="AK3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL3">
         <v>12</v>
       </c>
       <c r="AM3">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AN3">
         <v>16</v>
       </c>
       <c r="AO3">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AP3">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="AQ3">
         <v>50</v>
       </c>
       <c r="AR3">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AS3">
         <v>980</v>
@@ -1415,40 +1442,40 @@
         <v>28</v>
       </c>
       <c r="AU3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV3">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AW3">
         <v>65</v>
       </c>
       <c r="AX3">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY3">
         <v>130</v>
       </c>
       <c r="AZ3">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="BA3">
         <v>44</v>
       </c>
       <c r="BB3">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="BC3">
         <v>25</v>
       </c>
       <c r="BD3">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BG3">
         <v>7394845</v>
@@ -1460,16 +1487,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BK3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BL3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="BM3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1477,70 +1504,70 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M4">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O4">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="P4">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q4">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S4">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T4">
         <v>9.199999999999999</v>
       </c>
       <c r="U4">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V4">
         <v>8</v>
       </c>
       <c r="W4">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X4">
         <v>13</v>
@@ -1555,16 +1582,16 @@
         <v>980</v>
       </c>
       <c r="AB4">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD4">
         <v>6.4</v>
       </c>
       <c r="AE4">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF4">
         <v>10</v>
@@ -1597,13 +1624,13 @@
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AQ4">
         <v>980</v>
       </c>
       <c r="AR4">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AS4">
         <v>980</v>
@@ -1615,37 +1642,37 @@
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="AY4">
         <v>980</v>
       </c>
       <c r="AZ4">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="BA4">
         <v>980</v>
       </c>
       <c r="BB4">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="BC4">
         <v>980</v>
       </c>
       <c r="BD4">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE4">
         <v>1000</v>
       </c>
       <c r="BF4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BG4">
         <v>5352230</v>
@@ -1657,16 +1684,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="BK4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="BL4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="BM4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1674,43 +1701,43 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F5">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H5">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J5">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K5">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5">
         <v>2.22</v>
       </c>
       <c r="M5">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O5">
         <v>1.82</v>
@@ -1740,13 +1767,13 @@
         <v>22</v>
       </c>
       <c r="X5">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AA5">
         <v>980</v>
@@ -1770,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="AH5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI5">
         <v>980</v>
@@ -1779,13 +1806,13 @@
         <v>11</v>
       </c>
       <c r="AK5">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL5">
         <v>9.199999999999999</v>
       </c>
       <c r="AM5">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN5">
         <v>14.5</v>
@@ -1794,7 +1821,7 @@
         <v>980</v>
       </c>
       <c r="AP5">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AQ5">
         <v>980</v>
@@ -1809,40 +1836,40 @@
         <v>15.5</v>
       </c>
       <c r="AU5">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AV5">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AW5">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AX5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BA5">
         <v>10.5</v>
       </c>
       <c r="BB5">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BC5">
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BG5">
         <v>23257633</v>
@@ -1854,16 +1881,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="BK5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="BL5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="BM5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1871,103 +1898,103 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F6">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G6">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J6">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="M6">
+        <v>1.87</v>
+      </c>
+      <c r="N6">
+        <v>2.16</v>
+      </c>
+      <c r="O6">
+        <v>2.48</v>
+      </c>
+      <c r="P6">
+        <v>1.92</v>
+      </c>
+      <c r="Q6">
+        <v>2.12</v>
+      </c>
+      <c r="R6">
         <v>1.9</v>
       </c>
-      <c r="N6">
-        <v>2.12</v>
-      </c>
-      <c r="O6">
-        <v>2.42</v>
-      </c>
-      <c r="P6">
-        <v>1.86</v>
-      </c>
-      <c r="Q6">
-        <v>2.14</v>
-      </c>
-      <c r="R6">
-        <v>1.88</v>
-      </c>
       <c r="S6">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T6">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U6">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W6">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <v>21</v>
       </c>
       <c r="Y6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z6">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AA6">
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AC6">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD6">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE6">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AF6">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -1985,61 +2012,61 @@
         <v>14</v>
       </c>
       <c r="AN6">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP6">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AS6">
         <v>980</v>
       </c>
       <c r="AT6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU6">
         <v>32</v>
       </c>
       <c r="AV6">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AW6">
         <v>60</v>
       </c>
       <c r="AX6">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="BA6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BG6">
         <v>11079690</v>
@@ -2051,16 +2078,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="BK6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="BL6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BM6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2068,37 +2095,37 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G7">
         <v>3.4</v>
       </c>
       <c r="H7">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I7">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="J7">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K7">
         <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="M7">
         <v>1.92</v>
@@ -2107,10 +2134,10 @@
         <v>2.08</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P7">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q7">
         <v>1.93</v>
@@ -2119,7 +2146,7 @@
         <v>2.08</v>
       </c>
       <c r="S7">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -2137,19 +2164,19 @@
         <v>13.5</v>
       </c>
       <c r="Y7">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z7">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB7">
         <v>10.5</v>
       </c>
       <c r="AC7">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD7">
         <v>7</v>
@@ -2164,10 +2191,10 @@
         <v>12</v>
       </c>
       <c r="AH7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AJ7">
         <v>18</v>
@@ -2185,58 +2212,58 @@
         <v>16.5</v>
       </c>
       <c r="AO7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AQ7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AR7">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AS7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AT7">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AU7">
         <v>40</v>
       </c>
       <c r="AV7">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AW7">
         <v>55</v>
       </c>
       <c r="AX7">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BA7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BB7">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BC7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD7">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="BG7">
         <v>14112862</v>
@@ -2248,16 +2275,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BK7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="BL7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BM7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2265,37 +2292,37 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G8">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I8">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J8">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M8">
         <v>1.53</v>
@@ -2304,19 +2331,19 @@
         <v>2.88</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q8">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="R8">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S8">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2331,22 +2358,22 @@
         <v>980</v>
       </c>
       <c r="X8">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Y8">
         <v>980</v>
       </c>
       <c r="Z8">
-        <v>4.7</v>
+        <v>1.88</v>
       </c>
       <c r="AA8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB8">
         <v>6.2</v>
       </c>
       <c r="AC8">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD8">
         <v>6.2</v>
@@ -2361,10 +2388,10 @@
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>5.1</v>
+        <v>2.18</v>
       </c>
       <c r="AI8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8">
         <v>10.5</v>
@@ -2376,64 +2403,64 @@
         <v>11</v>
       </c>
       <c r="AM8">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR8">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AS8">
         <v>980</v>
       </c>
       <c r="AT8">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>13</v>
+        <v>1.89</v>
       </c>
       <c r="AW8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX8">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="BC8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD8">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BG8">
         <v>17586408</v>
@@ -2445,16 +2472,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BK8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BL8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="BM8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2462,34 +2489,34 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F9">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G9">
         <v>3.2</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I9">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J9">
         <v>3.4</v>
       </c>
       <c r="K9">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L9">
         <v>1.87</v>
@@ -2504,28 +2531,28 @@
         <v>2.14</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q9">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R9">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S9">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T9">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="U9">
         <v>16</v>
       </c>
       <c r="V9">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="W9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X9">
         <v>13.5</v>
@@ -2534,7 +2561,7 @@
         <v>19.5</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>980</v>
@@ -2543,94 +2570,94 @@
         <v>10.5</v>
       </c>
       <c r="AC9">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD9">
         <v>7.2</v>
       </c>
       <c r="AE9">
+        <v>980</v>
+      </c>
+      <c r="AF9">
         <v>9.800000000000001</v>
       </c>
-      <c r="AF9">
-        <v>10</v>
-      </c>
       <c r="AG9">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH9">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AI9">
         <v>34</v>
       </c>
       <c r="AJ9">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9">
         <v>10.5</v>
       </c>
       <c r="AM9">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN9">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO9">
         <v>23</v>
       </c>
       <c r="AP9">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AQ9">
         <v>980</v>
       </c>
       <c r="AR9">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AS9">
         <v>980</v>
       </c>
       <c r="AT9">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="AU9">
         <v>980</v>
       </c>
       <c r="AV9">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AW9">
         <v>980</v>
       </c>
       <c r="AX9">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY9">
         <v>980</v>
       </c>
       <c r="AZ9">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="BA9">
         <v>40</v>
       </c>
       <c r="BB9">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="BC9">
         <v>28</v>
       </c>
       <c r="BD9">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BG9">
         <v>48787</v>
@@ -2642,16 +2669,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BK9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BL9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="BM9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2659,28 +2686,28 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H10">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I10">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="J10">
         <v>4.2</v>
@@ -2689,46 +2716,46 @@
         <v>4.3</v>
       </c>
       <c r="L10">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="N10">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="O10">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P10">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q10">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R10">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="S10">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T10">
         <v>22</v>
       </c>
       <c r="U10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V10">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X10">
         <v>13</v>
       </c>
       <c r="Y10">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z10">
         <v>19</v>
@@ -2740,13 +2767,13 @@
         <v>23</v>
       </c>
       <c r="AC10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD10">
         <v>9.6</v>
       </c>
       <c r="AE10">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF10">
         <v>9.6</v>
@@ -2755,31 +2782,31 @@
         <v>10.5</v>
       </c>
       <c r="AH10">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI10">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL10">
         <v>16.5</v>
       </c>
       <c r="AM10">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN10">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO10">
         <v>15.5</v>
       </c>
       <c r="AP10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ10">
         <v>24</v>
@@ -2788,7 +2815,7 @@
         <v>36</v>
       </c>
       <c r="AS10">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AT10">
         <v>38</v>
@@ -2800,10 +2827,10 @@
         <v>38</v>
       </c>
       <c r="AW10">
+        <v>42</v>
+      </c>
+      <c r="AX10">
         <v>44</v>
-      </c>
-      <c r="AX10">
-        <v>50</v>
       </c>
       <c r="AY10">
         <v>60</v>
@@ -2815,19 +2842,19 @@
         <v>32</v>
       </c>
       <c r="BB10">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BC10">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BD10">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="BE10">
         <v>980</v>
       </c>
       <c r="BF10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="BG10">
         <v>48043</v>
@@ -2839,16 +2866,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="BK10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BL10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="BM10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2856,34 +2883,34 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G11">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H11">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I11">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J11">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K11">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
         <v>2.32</v>
@@ -2895,22 +2922,22 @@
         <v>1.73</v>
       </c>
       <c r="O11">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P11">
         <v>1.6</v>
       </c>
       <c r="Q11">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R11">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="S11">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T11">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="U11">
         <v>19</v>
@@ -2919,16 +2946,16 @@
         <v>14.5</v>
       </c>
       <c r="W11">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X11">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y11">
         <v>21</v>
       </c>
       <c r="Z11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA11">
         <v>44</v>
@@ -2940,10 +2967,10 @@
         <v>14</v>
       </c>
       <c r="AD11">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE11">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AF11">
         <v>12</v>
@@ -2952,13 +2979,13 @@
         <v>12.5</v>
       </c>
       <c r="AH11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ11">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK11">
         <v>18.5</v>
@@ -2976,16 +3003,16 @@
         <v>14.5</v>
       </c>
       <c r="AP11">
+        <v>29</v>
+      </c>
+      <c r="AQ11">
         <v>32</v>
-      </c>
-      <c r="AQ11">
-        <v>34</v>
       </c>
       <c r="AR11">
         <v>34</v>
       </c>
       <c r="AS11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT11">
         <v>22</v>
@@ -2994,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="AV11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW11">
         <v>32</v>
@@ -3006,25 +3033,25 @@
         <v>65</v>
       </c>
       <c r="AZ11">
+        <v>15</v>
+      </c>
+      <c r="BA11">
         <v>15.5</v>
       </c>
-      <c r="BA11">
-        <v>16.5</v>
-      </c>
       <c r="BB11">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC11">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BD11">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="BE11">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="BF11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BG11">
         <v>5774350</v>
@@ -3036,16 +3063,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BK11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="BL11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="BM11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3053,196 +3080,196 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F12">
-        <v>3.15</v>
+        <v>1.48</v>
       </c>
       <c r="G12">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="H12">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="I12">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="J12">
-        <v>2.96</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>330</v>
       </c>
       <c r="L12">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>1.65</v>
+        <v>13.5</v>
       </c>
       <c r="N12">
-        <v>2.52</v>
+        <v>1.08</v>
       </c>
       <c r="O12">
+        <v>6.4</v>
+      </c>
+      <c r="P12">
+        <v>1.12</v>
+      </c>
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+      <c r="R12">
+        <v>1.12</v>
+      </c>
+      <c r="S12">
+        <v>1000</v>
+      </c>
+      <c r="T12">
+        <v>1.48</v>
+      </c>
+      <c r="U12">
+        <v>1000</v>
+      </c>
+      <c r="V12">
+        <v>2.94</v>
+      </c>
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
         <v>2.9</v>
       </c>
-      <c r="P12">
-        <v>2.1</v>
-      </c>
-      <c r="Q12">
-        <v>2.34</v>
-      </c>
-      <c r="R12">
-        <v>1.75</v>
-      </c>
-      <c r="S12">
-        <v>1.91</v>
-      </c>
-      <c r="T12">
-        <v>7.6</v>
-      </c>
-      <c r="U12">
-        <v>9</v>
-      </c>
-      <c r="V12">
-        <v>7.4</v>
-      </c>
-      <c r="W12">
-        <v>8.6</v>
-      </c>
-      <c r="X12">
-        <v>13</v>
-      </c>
       <c r="Y12">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="AA12">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>8.199999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="AC12">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD12">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE12">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
-        <v>11.5</v>
+        <v>3.35</v>
       </c>
       <c r="AG12">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH12">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI12">
         <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>18</v>
+        <v>3.45</v>
       </c>
       <c r="AK12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="AM12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AO12">
         <v>1000</v>
       </c>
       <c r="AP12">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
       </c>
       <c r="AR12">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AU12">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="AW12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BG12">
-        <v>194509</v>
+        <v>18110373</v>
       </c>
       <c r="BH12">
-        <v>17304</v>
+        <v>7658015</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="BK12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="BL12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="BM12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3250,196 +3277,393 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="G13">
+        <v>3.5</v>
+      </c>
+      <c r="H13">
+        <v>2.54</v>
+      </c>
+      <c r="I13">
+        <v>2.68</v>
+      </c>
+      <c r="J13">
+        <v>2.96</v>
+      </c>
+      <c r="K13">
+        <v>3.15</v>
+      </c>
+      <c r="L13">
+        <v>1.52</v>
+      </c>
+      <c r="M13">
+        <v>1.64</v>
+      </c>
+      <c r="N13">
+        <v>2.56</v>
+      </c>
+      <c r="O13">
+        <v>2.94</v>
+      </c>
+      <c r="P13">
+        <v>2.14</v>
+      </c>
+      <c r="Q13">
+        <v>2.3</v>
+      </c>
+      <c r="R13">
+        <v>1.77</v>
+      </c>
+      <c r="S13">
+        <v>1.88</v>
+      </c>
+      <c r="T13">
         <v>7.6</v>
       </c>
-      <c r="H13">
-        <v>1.56</v>
-      </c>
-      <c r="I13">
-        <v>1.7</v>
-      </c>
-      <c r="J13">
+      <c r="U13">
+        <v>9</v>
+      </c>
+      <c r="V13">
+        <v>7.4</v>
+      </c>
+      <c r="W13">
+        <v>8.6</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>16.5</v>
+      </c>
+      <c r="Z13">
+        <v>4.9</v>
+      </c>
+      <c r="AA13">
+        <v>44</v>
+      </c>
+      <c r="AB13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13">
+        <v>6.4</v>
+      </c>
+      <c r="AE13">
+        <v>7.4</v>
+      </c>
+      <c r="AF13">
+        <v>11.5</v>
+      </c>
+      <c r="AG13">
+        <v>14</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13">
+        <v>18</v>
+      </c>
+      <c r="AK13">
+        <v>980</v>
+      </c>
+      <c r="AL13">
+        <v>12</v>
+      </c>
+      <c r="AM13">
+        <v>980</v>
+      </c>
+      <c r="AN13">
+        <v>20</v>
+      </c>
+      <c r="AO13">
+        <v>1000</v>
+      </c>
+      <c r="AP13">
+        <v>4.1</v>
+      </c>
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
+        <v>3.25</v>
+      </c>
+      <c r="AS13">
+        <v>1000</v>
+      </c>
+      <c r="AT13">
         <v>3.85</v>
       </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>1.9</v>
-      </c>
-      <c r="M13">
-        <v>2.18</v>
-      </c>
-      <c r="N13">
-        <v>1.86</v>
-      </c>
-      <c r="O13">
-        <v>2.1</v>
-      </c>
-      <c r="P13">
-        <v>1.94</v>
-      </c>
-      <c r="Q13">
-        <v>2.64</v>
-      </c>
-      <c r="R13">
-        <v>1.61</v>
-      </c>
-      <c r="S13">
-        <v>2.06</v>
-      </c>
-      <c r="T13">
-        <v>5.2</v>
-      </c>
-      <c r="U13">
-        <v>980</v>
-      </c>
-      <c r="V13">
-        <v>7</v>
-      </c>
-      <c r="W13">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X13">
-        <v>4.1</v>
-      </c>
-      <c r="Y13">
-        <v>10.5</v>
-      </c>
-      <c r="Z13">
-        <v>4.8</v>
-      </c>
-      <c r="AA13">
-        <v>17</v>
-      </c>
-      <c r="AB13">
-        <v>5.2</v>
-      </c>
-      <c r="AC13">
-        <v>980</v>
-      </c>
-      <c r="AD13">
-        <v>4.2</v>
-      </c>
-      <c r="AE13">
-        <v>11</v>
-      </c>
-      <c r="AF13">
-        <v>4.2</v>
-      </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
-        <v>5</v>
-      </c>
-      <c r="AI13">
-        <v>19</v>
-      </c>
-      <c r="AJ13">
-        <v>6</v>
-      </c>
-      <c r="AK13">
+      <c r="AU13">
         <v>60</v>
       </c>
-      <c r="AL13">
-        <v>5.4</v>
-      </c>
-      <c r="AM13">
-        <v>980</v>
-      </c>
-      <c r="AN13">
-        <v>5.3</v>
-      </c>
-      <c r="AO13">
-        <v>980</v>
-      </c>
-      <c r="AP13">
-        <v>5.8</v>
-      </c>
-      <c r="AQ13">
-        <v>42</v>
-      </c>
-      <c r="AR13">
-        <v>6.4</v>
-      </c>
-      <c r="AS13">
-        <v>1000</v>
-      </c>
-      <c r="AT13">
-        <v>6.4</v>
-      </c>
-      <c r="AU13">
-        <v>110</v>
-      </c>
       <c r="AV13">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="AW13">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AX13">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="BA13">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="BB13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC13">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="BD13">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BG13">
-        <v>44232344</v>
+        <v>194509</v>
       </c>
       <c r="BH13">
-        <v>474678</v>
+        <v>17304</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BK13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="BL13" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="BM13" t="s">
-        <v>167</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14">
+        <v>5.1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1.72</v>
+      </c>
+      <c r="I14">
+        <v>1.8</v>
+      </c>
+      <c r="J14">
+        <v>3.85</v>
+      </c>
+      <c r="K14">
+        <v>4.2</v>
+      </c>
+      <c r="L14">
+        <v>1.93</v>
+      </c>
+      <c r="M14">
+        <v>2.1</v>
+      </c>
+      <c r="N14">
+        <v>1.91</v>
+      </c>
+      <c r="O14">
+        <v>2.08</v>
+      </c>
+      <c r="P14">
+        <v>1.88</v>
+      </c>
+      <c r="Q14">
+        <v>2.04</v>
+      </c>
+      <c r="R14">
+        <v>1.96</v>
+      </c>
+      <c r="S14">
+        <v>2.14</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>15</v>
+      </c>
+      <c r="V14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W14">
+        <v>9.6</v>
+      </c>
+      <c r="X14">
+        <v>6.2</v>
+      </c>
+      <c r="Y14">
+        <v>10.5</v>
+      </c>
+      <c r="Z14">
+        <v>15.5</v>
+      </c>
+      <c r="AA14">
+        <v>18</v>
+      </c>
+      <c r="AB14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>21</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>9</v>
+      </c>
+      <c r="AF14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <v>19.5</v>
+      </c>
+      <c r="AJ14">
+        <v>11.5</v>
+      </c>
+      <c r="AK14">
+        <v>44</v>
+      </c>
+      <c r="AL14">
+        <v>18.5</v>
+      </c>
+      <c r="AM14">
+        <v>980</v>
+      </c>
+      <c r="AN14">
+        <v>17.5</v>
+      </c>
+      <c r="AO14">
+        <v>980</v>
+      </c>
+      <c r="AP14">
+        <v>30</v>
+      </c>
+      <c r="AQ14">
+        <v>42</v>
+      </c>
+      <c r="AR14">
+        <v>9</v>
+      </c>
+      <c r="AS14">
+        <v>170</v>
+      </c>
+      <c r="AT14">
+        <v>12</v>
+      </c>
+      <c r="AU14">
+        <v>85</v>
+      </c>
+      <c r="AV14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW14">
+        <v>90</v>
+      </c>
+      <c r="AX14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY14">
+        <v>140</v>
+      </c>
+      <c r="AZ14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BA14">
+        <v>110</v>
+      </c>
+      <c r="BB14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC14">
+        <v>14.5</v>
+      </c>
+      <c r="BD14">
+        <v>9.4</v>
+      </c>
+      <c r="BE14">
+        <v>1000</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG14">
+        <v>44232344</v>
+      </c>
+      <c r="BH14">
+        <v>474678</v>
+      </c>
+      <c r="BI14">
+        <v>58805</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -1122,76 +1122,76 @@
         <v>99</v>
       </c>
       <c r="F2">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G2">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L2">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="M2">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="N2">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="O2">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P2">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q2">
         <v>2.14</v>
       </c>
       <c r="R2">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S2">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
         <v>16</v>
       </c>
       <c r="U2">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="V2">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="W2">
         <v>40</v>
       </c>
       <c r="X2">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y2">
         <v>980</v>
       </c>
       <c r="Z2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AA2">
         <v>980</v>
       </c>
       <c r="AB2">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC2">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD2">
         <v>10.5</v>
@@ -1200,13 +1200,13 @@
         <v>15</v>
       </c>
       <c r="AF2">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG2">
         <v>40</v>
       </c>
       <c r="AH2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI2">
         <v>980</v>
@@ -1218,61 +1218,61 @@
         <v>10.5</v>
       </c>
       <c r="AL2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AM2">
         <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AP2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AQ2">
         <v>980</v>
       </c>
       <c r="AR2">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AS2">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AT2">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU2">
         <v>17</v>
       </c>
       <c r="AV2">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AW2">
         <v>42</v>
       </c>
       <c r="AX2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY2">
         <v>980</v>
       </c>
       <c r="AZ2">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="BA2">
         <v>5.8</v>
       </c>
       <c r="BB2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BC2">
         <v>980</v>
       </c>
       <c r="BD2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1322,55 +1322,55 @@
         <v>3.1</v>
       </c>
       <c r="G3">
+        <v>3.3</v>
+      </c>
+      <c r="H3">
+        <v>2.44</v>
+      </c>
+      <c r="I3">
+        <v>2.48</v>
+      </c>
+      <c r="J3">
         <v>3.45</v>
       </c>
-      <c r="H3">
-        <v>2.36</v>
-      </c>
-      <c r="I3">
-        <v>2.52</v>
-      </c>
-      <c r="J3">
-        <v>3.4</v>
-      </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L3">
         <v>1.84</v>
       </c>
       <c r="M3">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="O3">
         <v>2.2</v>
       </c>
       <c r="P3">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q3">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S3">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T3">
         <v>11.5</v>
       </c>
       <c r="U3">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V3">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X3">
         <v>13</v>
@@ -1379,7 +1379,7 @@
         <v>15.5</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA3">
         <v>40</v>
@@ -1397,7 +1397,7 @@
         <v>8.4</v>
       </c>
       <c r="AF3">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG3">
         <v>13</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="AM3">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN3">
         <v>16</v>
@@ -1427,49 +1427,49 @@
         <v>19.5</v>
       </c>
       <c r="AP3">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AQ3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR3">
+        <v>6.6</v>
+      </c>
+      <c r="AS3">
+        <v>65</v>
+      </c>
+      <c r="AT3">
         <v>6.4</v>
       </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>28</v>
-      </c>
       <c r="AU3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV3">
         <v>6.4</v>
       </c>
       <c r="AW3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX3">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY3">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AZ3">
         <v>6</v>
       </c>
       <c r="BA3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="BB3">
         <v>5.5</v>
       </c>
       <c r="BC3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD3">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1519,79 +1519,79 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="M4">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N4">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="O4">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="P4">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q4">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R4">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="S4">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T4">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W4">
         <v>9.800000000000001</v>
       </c>
       <c r="X4">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y4">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z4">
-        <v>27</v>
+        <v>7.2</v>
       </c>
       <c r="AA4">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB4">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC4">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD4">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF4">
         <v>10</v>
@@ -1603,70 +1603,70 @@
         <v>24</v>
       </c>
       <c r="AI4">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ4">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4">
         <v>12</v>
       </c>
       <c r="AM4">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN4">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO4">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP4">
+        <v>7</v>
+      </c>
+      <c r="AQ4">
+        <v>55</v>
+      </c>
+      <c r="AR4">
+        <v>7</v>
+      </c>
+      <c r="AS4">
+        <v>60</v>
+      </c>
+      <c r="AT4">
+        <v>6.8</v>
+      </c>
+      <c r="AU4">
+        <v>44</v>
+      </c>
+      <c r="AV4">
+        <v>7</v>
+      </c>
+      <c r="AW4">
+        <v>60</v>
+      </c>
+      <c r="AX4">
         <v>7.6</v>
       </c>
-      <c r="AQ4">
-        <v>980</v>
-      </c>
-      <c r="AR4">
-        <v>7.8</v>
-      </c>
-      <c r="AS4">
-        <v>980</v>
-      </c>
-      <c r="AT4">
-        <v>29</v>
-      </c>
-      <c r="AU4">
-        <v>980</v>
-      </c>
-      <c r="AV4">
-        <v>7.8</v>
-      </c>
-      <c r="AW4">
-        <v>980</v>
-      </c>
-      <c r="AX4">
-        <v>8.4</v>
-      </c>
       <c r="AY4">
         <v>980</v>
       </c>
       <c r="AZ4">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="BA4">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="BB4">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="BC4">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="BD4">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1713,46 +1713,46 @@
         <v>102</v>
       </c>
       <c r="F5">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="G5">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H5">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I5">
         <v>4.9</v>
       </c>
       <c r="J5">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K5">
         <v>4.3</v>
       </c>
       <c r="L5">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="N5">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O5">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="P5">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q5">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R5">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S5">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="T5">
         <v>15</v>
@@ -1767,13 +1767,13 @@
         <v>22</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y5">
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA5">
         <v>980</v>
@@ -1788,7 +1788,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE5">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF5">
         <v>15.5</v>
@@ -1797,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI5">
         <v>980</v>
@@ -1809,19 +1809,19 @@
         <v>14</v>
       </c>
       <c r="AL5">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM5">
         <v>11.5</v>
       </c>
       <c r="AN5">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO5">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AP5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AQ5">
         <v>980</v>
@@ -1839,31 +1839,31 @@
         <v>19.5</v>
       </c>
       <c r="AV5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AW5">
         <v>980</v>
       </c>
       <c r="AX5">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA5">
         <v>10.5</v>
       </c>
       <c r="BB5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BC5">
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1913,43 +1913,43 @@
         <v>2.2</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H6">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
         <v>4.1</v>
       </c>
       <c r="J6">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6">
         <v>3.6</v>
       </c>
       <c r="L6">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N6">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O6">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="P6">
+        <v>1.94</v>
+      </c>
+      <c r="Q6">
+        <v>2.08</v>
+      </c>
+      <c r="R6">
         <v>1.92</v>
       </c>
-      <c r="Q6">
-        <v>2.12</v>
-      </c>
-      <c r="R6">
-        <v>1.9</v>
-      </c>
       <c r="S6">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T6">
         <v>9.199999999999999</v>
@@ -1970,22 +1970,22 @@
         <v>30</v>
       </c>
       <c r="Z6">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AA6">
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC6">
         <v>9.4</v>
       </c>
       <c r="AD6">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE6">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AF6">
         <v>14</v>
@@ -1994,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -2009,22 +2009,22 @@
         <v>9.4</v>
       </c>
       <c r="AM6">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AN6">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="AO6">
         <v>25</v>
       </c>
       <c r="AP6">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AS6">
         <v>980</v>
@@ -2036,31 +2036,31 @@
         <v>32</v>
       </c>
       <c r="AV6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AW6">
         <v>60</v>
       </c>
       <c r="AX6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB6">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2107,73 +2107,73 @@
         <v>104</v>
       </c>
       <c r="F7">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="G7">
+        <v>3.6</v>
+      </c>
+      <c r="H7">
+        <v>2.26</v>
+      </c>
+      <c r="I7">
+        <v>2.38</v>
+      </c>
+      <c r="J7">
         <v>3.4</v>
-      </c>
-      <c r="H7">
-        <v>2.38</v>
-      </c>
-      <c r="I7">
-        <v>2.48</v>
-      </c>
-      <c r="J7">
-        <v>3.35</v>
       </c>
       <c r="K7">
         <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="N7">
         <v>2.08</v>
       </c>
       <c r="O7">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="P7">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q7">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="S7">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U7">
         <v>12.5</v>
       </c>
       <c r="V7">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="W7">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="X7">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y7">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z7">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB7">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC7">
         <v>12.5</v>
@@ -2197,67 +2197,67 @@
         <v>27</v>
       </c>
       <c r="AJ7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL7">
         <v>12.5</v>
       </c>
       <c r="AM7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN7">
         <v>16.5</v>
       </c>
       <c r="AO7">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP7">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AQ7">
         <v>46</v>
       </c>
       <c r="AR7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS7">
         <v>65</v>
       </c>
       <c r="AT7">
+        <v>9.6</v>
+      </c>
+      <c r="AU7">
+        <v>44</v>
+      </c>
+      <c r="AV7">
         <v>10</v>
       </c>
-      <c r="AU7">
-        <v>40</v>
-      </c>
-      <c r="AV7">
+      <c r="AW7">
+        <v>60</v>
+      </c>
+      <c r="AX7">
         <v>11</v>
       </c>
-      <c r="AW7">
-        <v>55</v>
-      </c>
-      <c r="AX7">
+      <c r="AY7">
+        <v>120</v>
+      </c>
+      <c r="AZ7">
+        <v>9.6</v>
+      </c>
+      <c r="BA7">
+        <v>48</v>
+      </c>
+      <c r="BB7">
+        <v>7.8</v>
+      </c>
+      <c r="BC7">
+        <v>22</v>
+      </c>
+      <c r="BD7">
         <v>12</v>
-      </c>
-      <c r="AY7">
-        <v>980</v>
-      </c>
-      <c r="AZ7">
-        <v>10</v>
-      </c>
-      <c r="BA7">
-        <v>40</v>
-      </c>
-      <c r="BB7">
-        <v>8.6</v>
-      </c>
-      <c r="BC7">
-        <v>23</v>
-      </c>
-      <c r="BD7">
-        <v>13.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2304,19 +2304,19 @@
         <v>105</v>
       </c>
       <c r="F8">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G8">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H8">
         <v>3.15</v>
       </c>
       <c r="I8">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="K8">
         <v>3.15</v>
@@ -2343,7 +2343,7 @@
         <v>1.63</v>
       </c>
       <c r="S8">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2352,19 +2352,19 @@
         <v>980</v>
       </c>
       <c r="V8">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="W8">
         <v>980</v>
       </c>
       <c r="X8">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="Y8">
         <v>980</v>
       </c>
       <c r="Z8">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AA8">
         <v>980</v>
@@ -2373,10 +2373,10 @@
         <v>6.2</v>
       </c>
       <c r="AC8">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD8">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE8">
         <v>980</v>
@@ -2388,7 +2388,7 @@
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AI8">
         <v>980</v>
@@ -2406,55 +2406,55 @@
         <v>16.5</v>
       </c>
       <c r="AN8">
+        <v>2.48</v>
+      </c>
+      <c r="AO8">
+        <v>980</v>
+      </c>
+      <c r="AP8">
         <v>2.08</v>
       </c>
-      <c r="AO8">
-        <v>980</v>
-      </c>
-      <c r="AP8">
-        <v>1.89</v>
-      </c>
       <c r="AQ8">
         <v>980</v>
       </c>
       <c r="AR8">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="AS8">
         <v>980</v>
       </c>
       <c r="AT8">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="AW8">
         <v>980</v>
       </c>
       <c r="AX8">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="BC8">
         <v>980</v>
       </c>
       <c r="BD8">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2504,7 +2504,7 @@
         <v>2.92</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H9">
         <v>2.46</v>
@@ -2513,55 +2513,55 @@
         <v>2.66</v>
       </c>
       <c r="J9">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9">
         <v>3.65</v>
       </c>
       <c r="L9">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="M9">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="N9">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="O9">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="P9">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q9">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S9">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T9">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="U9">
         <v>16</v>
       </c>
       <c r="V9">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>11</v>
       </c>
       <c r="X9">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9">
         <v>19.5</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AA9">
         <v>980</v>
@@ -2585,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="AH9">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AI9">
         <v>34</v>
@@ -2597,61 +2597,61 @@
         <v>25</v>
       </c>
       <c r="AL9">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM9">
         <v>16</v>
       </c>
       <c r="AN9">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP9">
+        <v>5.4</v>
+      </c>
+      <c r="AQ9">
+        <v>980</v>
+      </c>
+      <c r="AR9">
+        <v>5.4</v>
+      </c>
+      <c r="AS9">
+        <v>980</v>
+      </c>
+      <c r="AT9">
+        <v>5.3</v>
+      </c>
+      <c r="AU9">
+        <v>980</v>
+      </c>
+      <c r="AV9">
+        <v>5.4</v>
+      </c>
+      <c r="AW9">
+        <v>980</v>
+      </c>
+      <c r="AX9">
+        <v>5.7</v>
+      </c>
+      <c r="AY9">
+        <v>980</v>
+      </c>
+      <c r="AZ9">
         <v>5.1</v>
       </c>
-      <c r="AQ9">
-        <v>980</v>
-      </c>
-      <c r="AR9">
-        <v>5.1</v>
-      </c>
-      <c r="AS9">
-        <v>980</v>
-      </c>
-      <c r="AT9">
-        <v>5</v>
-      </c>
-      <c r="AU9">
-        <v>980</v>
-      </c>
-      <c r="AV9">
-        <v>5.1</v>
-      </c>
-      <c r="AW9">
-        <v>980</v>
-      </c>
-      <c r="AX9">
-        <v>5.3</v>
-      </c>
-      <c r="AY9">
-        <v>980</v>
-      </c>
-      <c r="AZ9">
-        <v>4.9</v>
-      </c>
       <c r="BA9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BB9">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BC9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD9">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2698,43 +2698,43 @@
         <v>107</v>
       </c>
       <c r="F10">
+        <v>4.4</v>
+      </c>
+      <c r="G10">
+        <v>4.5</v>
+      </c>
+      <c r="H10">
+        <v>1.83</v>
+      </c>
+      <c r="I10">
+        <v>1.84</v>
+      </c>
+      <c r="J10">
         <v>4.3</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>4.4</v>
       </c>
-      <c r="H10">
-        <v>1.86</v>
-      </c>
-      <c r="I10">
-        <v>1.87</v>
-      </c>
-      <c r="J10">
-        <v>4.2</v>
-      </c>
-      <c r="K10">
-        <v>4.3</v>
-      </c>
       <c r="L10">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="M10">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="N10">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="O10">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="P10">
         <v>1.59</v>
       </c>
       <c r="Q10">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S10">
         <v>2.7</v>
@@ -2746,10 +2746,10 @@
         <v>24</v>
       </c>
       <c r="V10">
+        <v>12.5</v>
+      </c>
+      <c r="W10">
         <v>13</v>
-      </c>
-      <c r="W10">
-        <v>13.5</v>
       </c>
       <c r="X10">
         <v>13</v>
@@ -2758,13 +2758,13 @@
         <v>14</v>
       </c>
       <c r="Z10">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA10">
         <v>21</v>
       </c>
       <c r="AB10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC10">
         <v>24</v>
@@ -2773,22 +2773,22 @@
         <v>9.6</v>
       </c>
       <c r="AE10">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF10">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10">
         <v>10.5</v>
       </c>
       <c r="AH10">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI10">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK10">
         <v>38</v>
@@ -2797,7 +2797,7 @@
         <v>16.5</v>
       </c>
       <c r="AM10">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN10">
         <v>14.5</v>
@@ -2806,19 +2806,19 @@
         <v>15.5</v>
       </c>
       <c r="AP10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ10">
         <v>24</v>
       </c>
       <c r="AR10">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AS10">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AT10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AU10">
         <v>44</v>
@@ -2827,31 +2827,31 @@
         <v>38</v>
       </c>
       <c r="AW10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AY10">
         <v>60</v>
       </c>
       <c r="AZ10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BA10">
         <v>32</v>
       </c>
       <c r="BB10">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BC10">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BD10">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="BE10">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="BF10" t="s">
         <v>120</v>
@@ -2895,16 +2895,16 @@
         <v>108</v>
       </c>
       <c r="F11">
+        <v>2.52</v>
+      </c>
+      <c r="G11">
         <v>2.54</v>
       </c>
-      <c r="G11">
-        <v>2.56</v>
-      </c>
       <c r="H11">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I11">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J11">
         <v>3.7</v>
@@ -2913,16 +2913,16 @@
         <v>3.75</v>
       </c>
       <c r="L11">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="M11">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="N11">
+        <v>1.71</v>
+      </c>
+      <c r="O11">
         <v>1.73</v>
-      </c>
-      <c r="O11">
-        <v>1.76</v>
       </c>
       <c r="P11">
         <v>1.6</v>
@@ -2931,19 +2931,19 @@
         <v>1.64</v>
       </c>
       <c r="R11">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="S11">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T11">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="U11">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V11">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W11">
         <v>15.5</v>
@@ -2952,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="Y11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z11">
         <v>42</v>
@@ -2979,16 +2979,16 @@
         <v>12.5</v>
       </c>
       <c r="AH11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ11">
         <v>17.5</v>
       </c>
       <c r="AK11">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL11">
         <v>11</v>
@@ -3018,19 +3018,19 @@
         <v>22</v>
       </c>
       <c r="AU11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV11">
         <v>28</v>
       </c>
       <c r="AW11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AX11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY11">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AZ11">
         <v>15</v>
@@ -3039,16 +3039,16 @@
         <v>15.5</v>
       </c>
       <c r="BB11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BD11">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="BE11">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="BF11" t="s">
         <v>121</v>
@@ -3092,22 +3092,22 @@
         <v>109</v>
       </c>
       <c r="F12">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
         <v>1000</v>
       </c>
       <c r="H12">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="I12">
         <v>1000</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K12">
-        <v>330</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
         <v>1.2</v>
@@ -3134,97 +3134,97 @@
         <v>1000</v>
       </c>
       <c r="T12">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U12">
         <v>1000</v>
       </c>
       <c r="V12">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="W12">
         <v>1000</v>
       </c>
       <c r="X12">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
         <v>1000</v>
       </c>
       <c r="Z12">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AA12">
         <v>1000</v>
       </c>
       <c r="AB12">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="AC12">
         <v>1000</v>
       </c>
       <c r="AD12">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="AE12">
         <v>1000</v>
       </c>
       <c r="AF12">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="AG12">
         <v>1000</v>
       </c>
       <c r="AH12">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="AI12">
         <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="AK12">
         <v>1000</v>
       </c>
       <c r="AL12">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AM12">
         <v>1000</v>
       </c>
       <c r="AN12">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="AO12">
         <v>1000</v>
       </c>
       <c r="AP12">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
       </c>
       <c r="AR12">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AU12">
         <v>1000</v>
       </c>
       <c r="AV12">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW12">
         <v>1000</v>
       </c>
       <c r="AX12">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AY12">
         <v>1000</v>
@@ -3242,7 +3242,7 @@
         <v>1000</v>
       </c>
       <c r="BD12">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3289,25 +3289,25 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H13">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I13">
         <v>2.68</v>
       </c>
       <c r="J13">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M13">
         <v>1.64</v>
@@ -3316,19 +3316,19 @@
         <v>2.56</v>
       </c>
       <c r="O13">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="P13">
         <v>2.14</v>
       </c>
       <c r="Q13">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R13">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="S13">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T13">
         <v>7.6</v>
@@ -3379,13 +3379,13 @@
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK13">
         <v>980</v>
       </c>
       <c r="AL13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM13">
         <v>980</v>
@@ -3397,7 +3397,7 @@
         <v>1000</v>
       </c>
       <c r="AP13">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
@@ -3409,13 +3409,13 @@
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="AU13">
         <v>60</v>
       </c>
       <c r="AV13">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AW13">
         <v>980</v>
@@ -3489,7 +3489,7 @@
         <v>5.1</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H14">
         <v>1.72</v>
@@ -3498,13 +3498,13 @@
         <v>1.8</v>
       </c>
       <c r="J14">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K14">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M14">
         <v>2.1</v>
@@ -3513,10 +3513,10 @@
         <v>1.91</v>
       </c>
       <c r="O14">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>2.04</v>
@@ -3525,10 +3525,10 @@
         <v>1.96</v>
       </c>
       <c r="S14">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="T14">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U14">
         <v>15</v>
@@ -3537,7 +3537,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="W14">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="X14">
         <v>6.2</v>
@@ -3546,13 +3546,13 @@
         <v>10.5</v>
       </c>
       <c r="Z14">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA14">
         <v>18</v>
       </c>
       <c r="AB14">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AC14">
         <v>21</v>
@@ -3561,22 +3561,22 @@
         <v>8</v>
       </c>
       <c r="AE14">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AF14">
         <v>9.199999999999999</v>
       </c>
       <c r="AG14">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH14">
         <v>16</v>
       </c>
       <c r="AI14">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ14">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AK14">
         <v>44</v>
@@ -3585,58 +3585,58 @@
         <v>18.5</v>
       </c>
       <c r="AM14">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AN14">
-        <v>17.5</v>
+        <v>7.8</v>
       </c>
       <c r="AO14">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AP14">
         <v>30</v>
       </c>
       <c r="AQ14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR14">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="AS14">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AT14">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AU14">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AV14">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AW14">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AX14">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="AY14">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="AZ14">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="BA14">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="BB14">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BC14">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="BD14">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="BE14">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>League</t>
   </si>
@@ -352,21 +352,6 @@
     <t>LDU</t>
   </si>
   <si>
-    <t>33230673</t>
-  </si>
-  <si>
-    <t>33231419</t>
-  </si>
-  <si>
-    <t>33231404</t>
-  </si>
-  <si>
-    <t>33230705</t>
-  </si>
-  <si>
-    <t>33230677</t>
-  </si>
-  <si>
     <t>33217069</t>
   </si>
   <si>
@@ -391,21 +376,6 @@
     <t>33230064</t>
   </si>
   <si>
-    <t>1.228234628</t>
-  </si>
-  <si>
-    <t>1.228258982</t>
-  </si>
-  <si>
-    <t>1.228259072</t>
-  </si>
-  <si>
-    <t>1.228234446</t>
-  </si>
-  <si>
-    <t>1.228234536</t>
-  </si>
-  <si>
     <t>1.228025098</t>
   </si>
   <si>
@@ -430,21 +400,6 @@
     <t>1.228224261</t>
   </si>
   <si>
-    <t>1.228234675</t>
-  </si>
-  <si>
-    <t>1.228259027</t>
-  </si>
-  <si>
-    <t>1.228259117</t>
-  </si>
-  <si>
-    <t>1.228234491</t>
-  </si>
-  <si>
-    <t>1.228234581</t>
-  </si>
-  <si>
     <t>1.228025143</t>
   </si>
   <si>
@@ -469,21 +424,6 @@
     <t>1.228224306</t>
   </si>
   <si>
-    <t>1.228234714</t>
-  </si>
-  <si>
-    <t>1.228259066</t>
-  </si>
-  <si>
-    <t>1.228259156</t>
-  </si>
-  <si>
-    <t>1.228234530</t>
-  </si>
-  <si>
-    <t>1.228234620</t>
-  </si>
-  <si>
     <t>1.228025182</t>
   </si>
   <si>
@@ -506,21 +446,6 @@
   </si>
   <si>
     <t>1.228224345</t>
-  </si>
-  <si>
-    <t>1.228234637</t>
-  </si>
-  <si>
-    <t>1.228258991</t>
-  </si>
-  <si>
-    <t>1.228259081</t>
-  </si>
-  <si>
-    <t>1.228234455</t>
-  </si>
-  <si>
-    <t>1.228234545</t>
   </si>
   <si>
     <t>1.228025107</t>
@@ -1277,8 +1202,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>112</v>
+      <c r="BF2">
+        <v>33230673</v>
       </c>
       <c r="BG2">
         <v>50443279</v>
@@ -1289,17 +1214,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>164</v>
+      <c r="BJ2">
+        <v>1.228234628</v>
+      </c>
+      <c r="BK2">
+        <v>1.228234675</v>
+      </c>
+      <c r="BL2">
+        <v>1.228234714</v>
+      </c>
+      <c r="BM2">
+        <v>1.228234637</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1474,8 +1399,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>113</v>
+      <c r="BF3">
+        <v>33231419</v>
       </c>
       <c r="BG3">
         <v>7394845</v>
@@ -1486,17 +1411,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>165</v>
+      <c r="BJ3">
+        <v>1.228258982</v>
+      </c>
+      <c r="BK3">
+        <v>1.228259027</v>
+      </c>
+      <c r="BL3">
+        <v>1.228259066</v>
+      </c>
+      <c r="BM3">
+        <v>1.228258991</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1671,8 +1596,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>114</v>
+      <c r="BF4">
+        <v>33231404</v>
       </c>
       <c r="BG4">
         <v>5352230</v>
@@ -1683,17 +1608,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>166</v>
+      <c r="BJ4">
+        <v>1.228259072</v>
+      </c>
+      <c r="BK4">
+        <v>1.228259117</v>
+      </c>
+      <c r="BL4">
+        <v>1.228259156</v>
+      </c>
+      <c r="BM4">
+        <v>1.228259081</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1868,8 +1793,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>115</v>
+      <c r="BF5">
+        <v>33230705</v>
       </c>
       <c r="BG5">
         <v>23257633</v>
@@ -1880,17 +1805,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>167</v>
+      <c r="BJ5">
+        <v>1.228234446</v>
+      </c>
+      <c r="BK5">
+        <v>1.228234491</v>
+      </c>
+      <c r="BL5">
+        <v>1.22823453</v>
+      </c>
+      <c r="BM5">
+        <v>1.228234455</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2065,8 +1990,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>116</v>
+      <c r="BF6">
+        <v>33230677</v>
       </c>
       <c r="BG6">
         <v>11079690</v>
@@ -2077,17 +2002,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>168</v>
+      <c r="BJ6">
+        <v>1.228234536</v>
+      </c>
+      <c r="BK6">
+        <v>1.228234581</v>
+      </c>
+      <c r="BL6">
+        <v>1.22823462</v>
+      </c>
+      <c r="BM6">
+        <v>1.228234545</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2107,73 +2032,73 @@
         <v>104</v>
       </c>
       <c r="F7">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H7">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I7">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="J7">
         <v>3.4</v>
       </c>
       <c r="K7">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L7">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="M7">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="N7">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="P7">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R7">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="T7">
+        <v>9.6</v>
+      </c>
+      <c r="U7">
+        <v>10.5</v>
+      </c>
+      <c r="V7">
+        <v>7.4</v>
+      </c>
+      <c r="W7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X7">
         <v>11</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>12.5</v>
       </c>
-      <c r="V7">
-        <v>7.8</v>
-      </c>
-      <c r="W7">
-        <v>9.6</v>
-      </c>
-      <c r="X7">
-        <v>13</v>
-      </c>
-      <c r="Y7">
-        <v>14.5</v>
-      </c>
       <c r="Z7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AA7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AB7">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC7">
         <v>12.5</v>
@@ -2182,88 +2107,88 @@
         <v>7</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AF7">
         <v>10</v>
       </c>
       <c r="AG7">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7">
         <v>27</v>
       </c>
       <c r="AJ7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL7">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AM7">
+        <v>17</v>
+      </c>
+      <c r="AN7">
+        <v>19.5</v>
+      </c>
+      <c r="AO7">
+        <v>22</v>
+      </c>
+      <c r="AP7">
+        <v>42</v>
+      </c>
+      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="AR7">
+        <v>46</v>
+      </c>
+      <c r="AS7">
+        <v>85</v>
+      </c>
+      <c r="AT7">
+        <v>32</v>
+      </c>
+      <c r="AU7">
+        <v>60</v>
+      </c>
+      <c r="AV7">
         <v>15</v>
       </c>
-      <c r="AN7">
+      <c r="AW7">
+        <v>75</v>
+      </c>
+      <c r="AX7">
         <v>16.5</v>
       </c>
-      <c r="AO7">
+      <c r="AY7">
+        <v>150</v>
+      </c>
+      <c r="AZ7">
+        <v>14.5</v>
+      </c>
+      <c r="BA7">
+        <v>70</v>
+      </c>
+      <c r="BB7">
         <v>19.5</v>
-      </c>
-      <c r="AP7">
-        <v>9.6</v>
-      </c>
-      <c r="AQ7">
-        <v>46</v>
-      </c>
-      <c r="AR7">
-        <v>10</v>
-      </c>
-      <c r="AS7">
-        <v>65</v>
-      </c>
-      <c r="AT7">
-        <v>9.6</v>
-      </c>
-      <c r="AU7">
-        <v>44</v>
-      </c>
-      <c r="AV7">
-        <v>10</v>
-      </c>
-      <c r="AW7">
-        <v>60</v>
-      </c>
-      <c r="AX7">
-        <v>11</v>
-      </c>
-      <c r="AY7">
-        <v>120</v>
-      </c>
-      <c r="AZ7">
-        <v>9.6</v>
-      </c>
-      <c r="BA7">
-        <v>48</v>
-      </c>
-      <c r="BB7">
-        <v>7.8</v>
       </c>
       <c r="BC7">
         <v>22</v>
       </c>
       <c r="BD7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
       <c r="BF7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="BG7">
         <v>14112862</v>
@@ -2275,16 +2200,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="BK7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="BL7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="BM7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2304,25 +2229,25 @@
         <v>105</v>
       </c>
       <c r="F8">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G8">
         <v>2.8</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
         <v>3.75</v>
       </c>
       <c r="J8">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="K8">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M8">
         <v>1.53</v>
@@ -2331,40 +2256,40 @@
         <v>2.88</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P8">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q8">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R8">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S8">
         <v>1.8</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U8">
         <v>980</v>
       </c>
       <c r="V8">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="W8">
         <v>980</v>
       </c>
       <c r="X8">
-        <v>2.96</v>
+        <v>18</v>
       </c>
       <c r="Y8">
         <v>980</v>
       </c>
       <c r="Z8">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AA8">
         <v>980</v>
@@ -2376,7 +2301,7 @@
         <v>980</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE8">
         <v>980</v>
@@ -2388,7 +2313,7 @@
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AI8">
         <v>980</v>
@@ -2406,61 +2331,61 @@
         <v>16.5</v>
       </c>
       <c r="AN8">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="AO8">
         <v>980</v>
       </c>
       <c r="AP8">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="AQ8">
         <v>980</v>
       </c>
       <c r="AR8">
-        <v>2.56</v>
+        <v>29</v>
       </c>
       <c r="AS8">
         <v>980</v>
       </c>
       <c r="AT8">
-        <v>2.58</v>
+        <v>5.9</v>
       </c>
       <c r="AU8">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV8">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="AW8">
         <v>980</v>
       </c>
       <c r="AX8">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="BA8">
         <v>1000</v>
       </c>
       <c r="BB8">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="BC8">
         <v>980</v>
       </c>
       <c r="BD8">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BG8">
         <v>17586408</v>
@@ -2472,16 +2397,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="BK8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="BL8" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="BM8" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2501,16 +2426,16 @@
         <v>106</v>
       </c>
       <c r="F9">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I9">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J9">
         <v>3.45</v>
@@ -2522,82 +2447,82 @@
         <v>2.02</v>
       </c>
       <c r="M9">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="N9">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="O9">
         <v>1.98</v>
       </c>
       <c r="P9">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q9">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R9">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S9">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T9">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="U9">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="W9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X9">
+        <v>12</v>
+      </c>
+      <c r="Y9">
+        <v>21</v>
+      </c>
+      <c r="Z9">
+        <v>4.9</v>
+      </c>
+      <c r="AA9">
+        <v>44</v>
+      </c>
+      <c r="AB9">
+        <v>9.6</v>
+      </c>
+      <c r="AC9">
+        <v>15.5</v>
+      </c>
+      <c r="AD9">
+        <v>6.2</v>
+      </c>
+      <c r="AE9">
+        <v>8.4</v>
+      </c>
+      <c r="AF9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG9">
         <v>14.5</v>
       </c>
-      <c r="Y9">
-        <v>19.5</v>
-      </c>
-      <c r="Z9">
-        <v>5.3</v>
-      </c>
-      <c r="AA9">
-        <v>980</v>
-      </c>
-      <c r="AB9">
-        <v>10.5</v>
-      </c>
-      <c r="AC9">
-        <v>980</v>
-      </c>
-      <c r="AD9">
-        <v>7.2</v>
-      </c>
-      <c r="AE9">
-        <v>980</v>
-      </c>
-      <c r="AF9">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG9">
-        <v>14</v>
-      </c>
       <c r="AH9">
-        <v>5.4</v>
+        <v>19</v>
       </c>
       <c r="AI9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ9">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK9">
         <v>25</v>
       </c>
       <c r="AL9">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM9">
         <v>16</v>
@@ -2609,55 +2534,55 @@
         <v>22</v>
       </c>
       <c r="AP9">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="AQ9">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AR9">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AS9">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AT9">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AU9">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AV9">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="AW9">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX9">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="AY9">
         <v>980</v>
       </c>
       <c r="AZ9">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BA9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB9">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BC9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD9">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="BG9">
         <v>48787</v>
@@ -2669,16 +2594,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="BK9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="BL9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="BM9" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2698,37 +2623,37 @@
         <v>107</v>
       </c>
       <c r="F10">
+        <v>4.8</v>
+      </c>
+      <c r="G10">
+        <v>4.9</v>
+      </c>
+      <c r="H10">
+        <v>1.76</v>
+      </c>
+      <c r="I10">
+        <v>1.77</v>
+      </c>
+      <c r="J10">
         <v>4.4</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>4.5</v>
       </c>
-      <c r="H10">
-        <v>1.83</v>
-      </c>
-      <c r="I10">
-        <v>1.84</v>
-      </c>
-      <c r="J10">
-        <v>4.3</v>
-      </c>
-      <c r="K10">
-        <v>4.4</v>
-      </c>
       <c r="L10">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="M10">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="N10">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="P10">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q10">
         <v>1.63</v>
@@ -2737,7 +2662,7 @@
         <v>2.58</v>
       </c>
       <c r="S10">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T10">
         <v>22</v>
@@ -2746,37 +2671,37 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W10">
         <v>13</v>
       </c>
       <c r="X10">
+        <v>12.5</v>
+      </c>
+      <c r="Y10">
         <v>13</v>
       </c>
-      <c r="Y10">
-        <v>14</v>
-      </c>
       <c r="Z10">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD10">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE10">
         <v>10.5</v>
       </c>
       <c r="AF10">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG10">
         <v>10.5</v>
@@ -2785,25 +2710,25 @@
         <v>15</v>
       </c>
       <c r="AI10">
+        <v>15.5</v>
+      </c>
+      <c r="AJ10">
+        <v>34</v>
+      </c>
+      <c r="AK10">
+        <v>42</v>
+      </c>
+      <c r="AL10">
+        <v>18</v>
+      </c>
+      <c r="AM10">
+        <v>19.5</v>
+      </c>
+      <c r="AN10">
+        <v>15.5</v>
+      </c>
+      <c r="AO10">
         <v>16</v>
-      </c>
-      <c r="AJ10">
-        <v>30</v>
-      </c>
-      <c r="AK10">
-        <v>38</v>
-      </c>
-      <c r="AL10">
-        <v>16.5</v>
-      </c>
-      <c r="AM10">
-        <v>18.5</v>
-      </c>
-      <c r="AN10">
-        <v>14.5</v>
-      </c>
-      <c r="AO10">
-        <v>15.5</v>
       </c>
       <c r="AP10">
         <v>22</v>
@@ -2812,22 +2737,22 @@
         <v>24</v>
       </c>
       <c r="AR10">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AS10">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AT10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AU10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AV10">
         <v>38</v>
       </c>
       <c r="AW10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX10">
         <v>50</v>
@@ -2836,25 +2761,25 @@
         <v>60</v>
       </c>
       <c r="AZ10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BB10">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC10">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="BD10">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="BE10">
         <v>320</v>
       </c>
       <c r="BF10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="BG10">
         <v>48043</v>
@@ -2866,16 +2791,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="BK10" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="BL10" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="BM10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2895,163 +2820,163 @@
         <v>108</v>
       </c>
       <c r="F11">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="G11">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="H11">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11">
+        <v>2.32</v>
+      </c>
+      <c r="M11">
         <v>2.36</v>
       </c>
-      <c r="M11">
-        <v>2.42</v>
-      </c>
       <c r="N11">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="O11">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P11">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q11">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R11">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S11">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U11">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V11">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W11">
+        <v>16.5</v>
+      </c>
+      <c r="X11">
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <v>24</v>
+      </c>
+      <c r="Z11">
+        <v>50</v>
+      </c>
+      <c r="AA11">
+        <v>55</v>
+      </c>
+      <c r="AB11">
+        <v>12.5</v>
+      </c>
+      <c r="AC11">
+        <v>13</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>12.5</v>
+      </c>
+      <c r="AG11">
+        <v>13</v>
+      </c>
+      <c r="AH11">
+        <v>30</v>
+      </c>
+      <c r="AI11">
+        <v>32</v>
+      </c>
+      <c r="AJ11">
         <v>15.5</v>
       </c>
-      <c r="X11">
-        <v>20</v>
-      </c>
-      <c r="Y11">
-        <v>22</v>
-      </c>
-      <c r="Z11">
-        <v>42</v>
-      </c>
-      <c r="AA11">
-        <v>44</v>
-      </c>
-      <c r="AB11">
-        <v>13</v>
-      </c>
-      <c r="AC11">
+      <c r="AK11">
+        <v>16</v>
+      </c>
+      <c r="AL11">
+        <v>10.5</v>
+      </c>
+      <c r="AM11">
+        <v>11</v>
+      </c>
+      <c r="AN11">
         <v>14</v>
-      </c>
-      <c r="AD11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE11">
-        <v>8.4</v>
-      </c>
-      <c r="AF11">
-        <v>12</v>
-      </c>
-      <c r="AG11">
-        <v>12.5</v>
-      </c>
-      <c r="AH11">
-        <v>26</v>
-      </c>
-      <c r="AI11">
-        <v>27</v>
-      </c>
-      <c r="AJ11">
-        <v>17.5</v>
-      </c>
-      <c r="AK11">
-        <v>18</v>
-      </c>
-      <c r="AL11">
-        <v>11</v>
-      </c>
-      <c r="AM11">
-        <v>11.5</v>
-      </c>
-      <c r="AN11">
-        <v>13.5</v>
       </c>
       <c r="AO11">
         <v>14.5</v>
       </c>
       <c r="AP11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ11">
+        <v>34</v>
+      </c>
+      <c r="AR11">
+        <v>30</v>
+      </c>
+      <c r="AS11">
         <v>32</v>
       </c>
-      <c r="AR11">
-        <v>34</v>
-      </c>
-      <c r="AS11">
-        <v>36</v>
-      </c>
       <c r="AT11">
+        <v>21</v>
+      </c>
+      <c r="AU11">
         <v>22</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
+        <v>26</v>
+      </c>
+      <c r="AW11">
+        <v>27</v>
+      </c>
+      <c r="AX11">
+        <v>50</v>
+      </c>
+      <c r="AY11">
+        <v>60</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>13.5</v>
+      </c>
+      <c r="BB11">
         <v>23</v>
       </c>
-      <c r="AV11">
-        <v>28</v>
-      </c>
-      <c r="AW11">
-        <v>29</v>
-      </c>
-      <c r="AX11">
-        <v>48</v>
-      </c>
-      <c r="AY11">
-        <v>55</v>
-      </c>
-      <c r="AZ11">
-        <v>15</v>
-      </c>
-      <c r="BA11">
-        <v>15.5</v>
-      </c>
-      <c r="BB11">
-        <v>19</v>
-      </c>
       <c r="BC11">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="BD11">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="BE11">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="BF11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BG11">
         <v>5774350</v>
@@ -3063,16 +2988,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="BK11" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="BL11" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="BM11" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3092,163 +3017,163 @@
         <v>109</v>
       </c>
       <c r="F12">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H12">
-        <v>1.42</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>1.53</v>
+        <v>2.88</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>13.5</v>
+        <v>1.67</v>
       </c>
       <c r="N12">
-        <v>1.08</v>
+        <v>2.48</v>
       </c>
       <c r="O12">
-        <v>6.4</v>
+        <v>2.98</v>
       </c>
       <c r="P12">
-        <v>1.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q12">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="R12">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="S12">
-        <v>1000</v>
+        <v>1.97</v>
       </c>
       <c r="T12">
-        <v>1.49</v>
+        <v>4.3</v>
       </c>
       <c r="U12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V12">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="W12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="Y12">
         <v>1000</v>
       </c>
       <c r="Z12">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="AA12">
         <v>1000</v>
       </c>
       <c r="AB12">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AC12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AE12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AG12">
         <v>1000</v>
       </c>
       <c r="AH12">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="AI12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="AK12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AM12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN12">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AO12">
         <v>1000</v>
       </c>
       <c r="AP12">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
       </c>
       <c r="AR12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AU12">
         <v>1000</v>
       </c>
       <c r="AV12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AW12">
         <v>1000</v>
       </c>
       <c r="AX12">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="BA12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB12">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="BC12">
         <v>1000</v>
       </c>
       <c r="BD12">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BG12">
         <v>18110373</v>
@@ -3260,16 +3185,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="BK12" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="BL12" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="BM12" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3289,16 +3214,16 @@
         <v>110</v>
       </c>
       <c r="F13">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G13">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -3307,37 +3232,37 @@
         <v>3.1</v>
       </c>
       <c r="L13">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M13">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="N13">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="O13">
         <v>2.86</v>
       </c>
       <c r="P13">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q13">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="R13">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="S13">
         <v>1.87</v>
       </c>
       <c r="T13">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="V13">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W13">
         <v>8.6</v>
@@ -3346,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="Y13">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13">
         <v>4.9</v>
@@ -3373,7 +3298,7 @@
         <v>14</v>
       </c>
       <c r="AH13">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AI13">
         <v>1000</v>
@@ -3385,7 +3310,7 @@
         <v>980</v>
       </c>
       <c r="AL13">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM13">
         <v>980</v>
@@ -3394,58 +3319,58 @@
         <v>20</v>
       </c>
       <c r="AO13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AS13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU13">
         <v>60</v>
       </c>
       <c r="AV13">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AW13">
         <v>980</v>
       </c>
       <c r="AX13">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AY13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="BA13">
         <v>980</v>
       </c>
       <c r="BB13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BC13">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="BD13">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BG13">
         <v>194509</v>
@@ -3457,16 +3382,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="BK13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="BL13" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="BM13" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3486,70 +3411,70 @@
         <v>111</v>
       </c>
       <c r="F14">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G14">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I14">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="J14">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K14">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14">
+        <v>1.94</v>
+      </c>
+      <c r="M14">
+        <v>2.12</v>
+      </c>
+      <c r="N14">
+        <v>1.9</v>
+      </c>
+      <c r="O14">
+        <v>2.06</v>
+      </c>
+      <c r="P14">
         <v>1.91</v>
       </c>
-      <c r="M14">
-        <v>2.1</v>
-      </c>
-      <c r="N14">
-        <v>1.91</v>
-      </c>
-      <c r="O14">
-        <v>2.1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
       <c r="Q14">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R14">
         <v>1.96</v>
       </c>
       <c r="S14">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U14">
         <v>15</v>
       </c>
       <c r="V14">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="W14">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X14">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="Y14">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z14">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="AA14">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AB14">
         <v>16.5</v>
@@ -3558,7 +3483,7 @@
         <v>21</v>
       </c>
       <c r="AD14">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE14">
         <v>9.4</v>
@@ -3567,82 +3492,82 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG14">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH14">
         <v>16</v>
       </c>
       <c r="AI14">
+        <v>980</v>
+      </c>
+      <c r="AJ14">
+        <v>36</v>
+      </c>
+      <c r="AK14">
+        <v>980</v>
+      </c>
+      <c r="AL14">
         <v>19</v>
-      </c>
-      <c r="AJ14">
-        <v>25</v>
-      </c>
-      <c r="AK14">
-        <v>44</v>
-      </c>
-      <c r="AL14">
-        <v>18.5</v>
       </c>
       <c r="AM14">
         <v>22</v>
       </c>
       <c r="AN14">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AO14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AP14">
         <v>30</v>
       </c>
       <c r="AQ14">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AR14">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="AS14">
         <v>160</v>
       </c>
       <c r="AT14">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AU14">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AV14">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AW14">
         <v>160</v>
       </c>
       <c r="AX14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY14">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AZ14">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="BA14">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="BB14">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC14">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BD14">
-        <v>5.1</v>
+        <v>13.5</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BG14">
         <v>44232344</v>
@@ -3654,16 +3579,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BK14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="BL14" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="BM14" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
